--- a/data/game_wiki.xlsx
+++ b/data/game_wiki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,157 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Limbo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Martin Stig Andersen, Jeppe Carlsen, Thomas Krog, Mads Wibroe, Arnt Jensen, Dino Christian Patti, Stine Sørensen, Morten Christian Bramsen</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2010-07-21</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Limbo is a critically acclaimed 2D puzzle-platformer developed by Playdead, released on July 21, 2010. The game was conceptualized and directed by Arnt Jensen, with significant contributions from developers such as Martin Stig Andersen and Jeppe Carlsen. It was published by Microsoft Studios, Playdead, and 鱼俞 across multiple platforms, including PC, PlayStation, Xbox, and Nintendo Switch. Limbo is celebrated for its minimalist artistic style, which employs a monochrome color palette to create a haunting atmosphere that emphasizes the isolation of its nameless protagonist.
+The gameplay of Limbo revolves around navigating a series of puzzles and platforming challenges in a hostile environment. The game is notable for its use of one-hit deaths, which are mitigated by a generous checkpoint system that encourages experimentation and learning. The player must guide the protagonist through various treacherous environments, using simple controls to manipulate objects and solve physics-based puzzles. Despite its black-and-white aesthetics, the game intuitively distinguishes interactive elements from those that pose danger, ensuring a seamless gameplay experience.
+Limbo's narrative is sparse and open to interpretation, enhancing its enigmatic charm. The game avoids explicit storytelling, instead using its atmospheric design and sound to evoke emotion and tension without relying on traditional horror tropes. This approach, combined with its abrupt ending, has sparked discussions and analysis, contributing to its status as a significant work in the indie gaming scene. The game's sound design, crafted by Andersen, further immerses players in its eerie world, using ambient sounds to heighten suspense and engagement.
+Upon release, Limbo received widespread critical acclaim for its artistic design, innovative gameplay, and unique atmosphere. It earned high praise from various gaming outlets and was recognized with numerous awards, solidifying its position as a milestone in the puzzle-platformer genre. The game's impact extends beyond its immediate success, influencing subsequent indie games with its minimalist approach and atmospheric storytelling.
+Limbo's cultural impact is significant, as it demonstrated the potential of indie games to deliver profound and innovative experiences. Its success helped pave the way for other indie developers to explore unconventional narratives and artistic styles, contributing to a broader acceptance of video games as an art form.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['Edge Staff. (2010, July 23). Limbo review. Edge. https://www.edge-online.com/features/limbo-review', "Herold, C. (2010, July 21). 'Limbo' a haunting, memorable game. The New York Times. https://www.nytimes.com/2010/07/22/arts/video-games/limbo.html", 'Orland, K. (2010, July 20). Review: Limbo. Ars Technica. https://arstechnica.com/gaming/2010/07/review-limbo', 'Parkin, S. (2010, July 19). Limbo review. Eurogamer. https://www.eurogamer.net/articles/2010-07-19-limbo-review', 'Totilo, S. (2010, July 27). The Making of Limbo. Kotaku. https://kotaku.com/the-making-of-limbo-5597437']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.14
+Average Playtime: 3 hours
+ESRB Rating: Teen
+Metacritic Score: 88
+Platforms: PC, Android, PS Vita, PlayStation 4, PlayStation 3, Xbox 360, Linux, macOS, iOS, Xbox One, Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-03-27 18:18:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>422</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Terraria</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Andrew Spinks, Whitney Baird, Victor Moura, Jim Kjexrud, Jamison Hayes, Scott Lloyd Shelly, Chris Bednarz, Yorai Omer</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2011-05-16</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Terraria is a critically acclaimed 2D action-adventure sandbox game initially released on May 16, 2011. Developed by Re-Logic, a company founded by Andrew Spinks, the game combines elements of classic action games with the freedom of sandbox-style creativity. It is available on multiple platforms, including PC, macOS, Linux, and a range of consoles and mobile devices such as Xbox One, PlayStation 4, and Nintendo Switch. The game has been published by several companies over its lifespan, including 505 Games and Spike Chunsoft.
+The gameplay of Terraria revolves around exploration, crafting, building, and combat. Players start by creating a character and entering a randomly generated 2D world filled with diverse biomes, each with unique resources and enemies. The primary goal is to gather materials to craft increasingly powerful weapons and armor, allowing players to tackle more challenging bosses and events. Players can also construct settlements and invite NPCs to inhabit them, which adds depth to the gameplay by providing access to new items and services. The game supports singleplayer and multiplayer modes, with options for cooperative play.
+Terraria's reception has been overwhelmingly positive, praised for its depth, replayability, and the vast array of content available. The pixel-art graphics, combined with a rich soundtrack composed by Scott Lloyd Shelly, contribute to its charming and atmospheric experience. The game's success has led to a thriving modding community, which has further expanded its content and replay value. Terraria has sold millions of copies worldwide, making it one of the best-selling indie games of all time.
+Culturally, Terraria has become a significant part of the indie gaming landscape, often compared to games like Minecraft for its creative freedom and sandbox elements. It has influenced a new generation of sandbox and survival games, encouraging developers to explore similar mechanics and styles. The game's ongoing updates and community support have kept it relevant for over a decade, maintaining a dedicated fanbase and ensuring its place in video game history.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['IGN. (2011). Terraria Review. Retrieved from https://www.ign.com/articles/2011/05/23/terraria-review', 'Metacritic. (n.d.). Terraria for PC Reviews. Retrieved from https://www.metacritic.com/game/pc/terraria', 'PC Gamer. (2011). Terraria Review. Retrieved from https://www.pcgamer.com/terraria-review', 'Polygon. (2020). Terraria: Journey’s End is a perfect goodbye to a decade-old game. Retrieved from https://www.polygon.com/reviews/2020/5/21/21266515/terraria-journeys-end-review-final-update-pc', 'Re-Logic. (n.d.). Official Terraria Website. Retrieved from http://www.terraria.org/']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.06
+Average Playtime: 15 hours
+ESRB Rating: Teen
+Metacritic Score: 81
+Platforms: Xbox 360, Wii U, Nintendo 3DS, Xbox One, PlayStation 4, iOS, PC, macOS, Linux, Nintendo Switch, PlayStation 3, PS Vita, Android</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-03-27 18:19:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3272</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rocket League</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Corey Davis, Thomas Silloway, Bobby McCoin, Sarah Hebbler, Jared Cone</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2015-07-07</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rocket League is a highly competitive vehicular soccer video game developed and published by Psyonix. Released on July 7, 2015, it is considered a spiritual successor to Psyonix's earlier title, Supersonic Acrobatic Rocket-Powered Battle-Cars. The game quickly gained popularity due to its unique blend of soccer and racing mechanics, offering fast-paced gameplay where players control rocket-powered cars to hit a ball into the opponent's goal. Available on multiple platforms, including Nintendo Switch, Linux, macOS, Xbox One, PC, and PlayStation 4, Rocket League supports various multiplayer modes, including both local and online play, and features cross-platform multiplayer capabilities.
+The game's core mechanics revolve around using rocket-boosted cars to compete in soccer matches. Players can choose from different game modes, ranging from casual matches to competitive ranked play, in team formats such as 1v1, 2v2, and 3v3. The game is renowned for its 'easy to learn, hard to master' mechanics, which are complemented by tight controls, allowing for precise maneuvers and strategic gameplay. Boost pads scattered across the field provide the necessary energy to accelerate or launch cars into the air, enabling advanced aerial techniques. Rocket League also offers extensive customization options, allowing players to personalize their vehicles with various decals, paint jobs, and accessories. Collaborations with popular franchises have introduced iconic vehicles like the Batmobile and the DeLorean from Back to the Future.
+Upon its release, Rocket League received widespread acclaim from critics and players alike, praised for its innovative gameplay, vibrant graphics, and engaging multiplayer experiences. It was lauded for its ability to appeal to both casual players and competitive gamers, leading to a burgeoning esports scene. The game’s soundtrack, featuring a mix of electronic and indie music, also garnered positive feedback for enhancing the gameplay experience. Rocket League's success is reflected in its high player engagement and the passionate community it has cultivated over the years.
+Culturally, Rocket League has had a significant impact on the gaming industry, particularly in the realm of esports. Its inclusion in major esports tournaments and leagues has helped elevate the game's visibility and prestige, solidifying its position as a staple in competitive gaming. The game's cross-platform play feature was a pioneering move that encouraged inclusivity and connectivity among players across different gaming systems. Rocket League's influence extends beyond gaming, as it has become a cultural phenomenon, with its unique concept inspiring a variety of media and merchandise, further embedding it into popular culture.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['IGN Staff. (2015). Rocket League Review. IGN. Retrieved from https://www.ign.com/articles/2015/07/07/rocket-league-review', 'Polygon Staff. (2015). Rocket League is a hit and the new hotness on Twitch. Polygon. Retrieved from https://www.polygon.com/2015/7/10/8929671/rocket-league-sales-twitch-steam', 'GameSpot Staff. (2015). Rocket League Review. GameSpot. Retrieved from https://www.gamespot.com/reviews/rocket-league-review/1900-6416180/', "Tassi, P. (2015). Rocket League's Success Story Is A Tale Of 'Right Place, Right Time'. Forbes. Retrieved from https://www.forbes.com/sites/insertcoin/2015/07/21/rocket-leagues-success-story-is-a-tale-of-right-place-right-time/", 'The Verge Staff. (2016). Rocket League now has more than 19 million players. The Verge. Retrieved from https://www.theverge.com/2016/7/6/12109186/rocket-league-player-count-19-million']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.93
+Average Playtime: 21 hours
+ESRB Rating: Everyone
+Metacritic Score: 86
+Platforms: Nintendo Switch, Linux, macOS, Xbox One, PC, PlayStation 4</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-03-27 18:19:20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/game_wiki.xlsx
+++ b/data/game_wiki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,6 +631,107 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9767</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hollow Knight</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ari Gibson, David Kazi, Christopher Larkin, William Pellen</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2017-02-23</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hollow Knight is a critically acclaimed Metroidvania-style action-adventure game developed by the indie studio Team Cherry. Released on February 23, 2017, the game has been lauded for its intricate world design, fluid gameplay mechanics, and atmospheric presentation. Set in the hauntingly beautiful world of Hallownest, players assume the role of the titular Hollow Knight, embarking on a quest to uncover the mysteries of a forgotten kingdom. Team Cherry, consisting of Ari Gibson, David Kazi, Christopher Larkin, and William Pellen, crafted the game with a strong emphasis on exploration, storytelling, and challenging combat.
+The game's narrative unfolds through environmental storytelling, with lore and plot details revealed via in-game items, tablets, and the introspective thoughts of other characters. This indirect storytelling approach encourages players to piece together the history and fate of Hallownest as they traverse its expansive underground world. The journey begins in the town of Dirtmouth, above the ruins of Hallownest, where players descend into the depths to seek answers and confront enigmatic foes. The progression is non-linear, requiring players to backtrack and explore previously inaccessible areas as they acquire new abilities and defeat formidable bosses.
+Hollow Knight's gameplay centers around exploration and combat, with players using a nail as their primary weapon. This nail can be upgraded, allowing for attacks in four directions, and players must hone their platforming skills to navigate the game's interconnected areas. The game's design incorporates classic Metroidvania elements such as hidden secrets, challenging enemies, and dynamic environmental changes that occur as the story progresses. Team Cherry's hand-drawn art style and Christopher Larkin's evocative soundtrack further enhance the game's gothic atmosphere, immersing players in a world that is both 'cute' and foreboding.
+Upon release, Hollow Knight received widespread critical acclaim, praised for its depth, artistic direction, and challenging gameplay. It quickly garnered a dedicated fanbase and became a standout title within the indie gaming landscape. The game's success led to its availability on multiple platforms, including PlayStation 4, Linux, macOS, PC, Nintendo Switch, and Xbox One. With a Metascore of 90 out of 100 and a user rating of 4.41, Hollow Knight has been celebrated as a modern classic in the Metroidvania genre.
+Culturally, Hollow Knight has had a significant impact, inspiring a range of fan art, merchandise, and discussions about its rich lore. It has also paved the way for future indie titles by demonstrating the potential for small studios to create impactful, high-quality games. The game's influence is evident in its continued popularity and the anticipation surrounding its upcoming sequel, Hollow Knight: Silksong.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Metacritic. (n.d.). Hollow Knight. Retrieved from https://www.metacritic.com/game/hollow-knight', 'Smith, G. (2017, March 8). Hollow Knight review: A deep, beautiful, and relentlessly tough Metroidvania. PCWorld. Retrieved from https://www.pcworld.com/article/hollow-knight-review.html', 'Crecente, B. (2017, February 24). Hollow Knight is a beautiful, surprisingly tough Metroidvania. Polygon. Retrieved from https://www.polygon.com/reviews/hollow-knight-review', 'Sinclair, B. (2017, March 11). The making of Hollow Knight. GamesIndustry.biz. Retrieved from https://www.gamesindustry.biz/articles/2017-03-11-the-making-of-hollow-knight', 'Official Hollow Knight Website. (n.d.). Retrieved from http://hollowknight.com']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.41
+Average Playtime: 7 hours
+ESRB Rating: Everyone 10+
+Metacritic Score: 88
+Platforms: PlayStation 4, Linux, macOS, PC, Nintendo Switch, Xbox One</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-03-27 18:21:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>654</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stardew Valley</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Eric Barone</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2016-02-25</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Stardew Valley is a critically acclaimed indie simulation role-playing game developed by Eric Barone, also known as ConcernedApe, and published by Chucklefish. Released on February 25, 2016, the game is available on a wide array of platforms, including Nintendo Switch, Xbox One, PC, iOS, macOS, Linux, PlayStation 4, PS Vita, and Android. This open-ended game provides players with a sandbox environment where they take on the role of an office worker who inherits an overgrown farm in the small town of Stardew Valley. The game offers a nostalgic nod to classic farming simulators, most notably the Harvest Moon series, while incorporating modern gameplay mechanics.
+The development of Stardew Valley was a remarkable solo endeavor by Eric Barone, who spent over four years designing, programming, and composing the music for the game. Barone's vision was to create a game that not only paid homage to the beloved farming genre but also expanded upon it with a rich set of features. Players can choose the gender, name, and appearance of their character and select a farm layout that best suits their playstyle. The game's mechanics include farming, fishing, mining, crafting, and building relationships with the town's residents. The absence of a primary goal allows players to explore the world at their own pace, engaging in various activities that provide endless gameplay possibilities.
+Stardew Valley was met with widespread critical acclaim upon its release, earning a 4.4 rating and praised for its engaging gameplay, charming pixel art style, and atmospheric soundtrack. The game quickly became a cultural phenomenon within the indie gaming community, noted for its depth and emotional resonance. The inclusion of multiplayer features allowed friends to co-op on farm tasks, adding a social dimension to the experience. Stardew Valley has been credited with revitalizing the farming simulation genre and inspiring numerous indie developers to pursue their projects.
+Culturally, Stardew Valley has had a significant impact, fostering a dedicated fan base and community. It has been highlighted for its inclusive design, allowing players to engage in same-sex relationships and marriages, which has been appreciated for promoting diversity and representation in gaming. The game's success has led to the development of a board game adaptation and ongoing updates, ensuring its continued relevance in the gaming landscape. The official website, stardewvalley.net, serves as a hub for news, updates, and community engagement, reflecting the game's enduring popularity.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['IGN. (2016). Stardew Valley Review. Retrieved from https://www.ign.com/articles/2016/03/07/stardew-valley-review', 'PC Gamer. (2016). Stardew Valley is a farming RPG with a lot more heart than most. Retrieved from https://www.pcgamer.com/stardew-valley-review/', 'Polygon. (2016). Stardew Valley: An interview with its sole creator. Retrieved from https://www.polygon.com/2016/2/29/11133682/stardew-valley-eric-barone-interview', 'The Guardian. (2016). Stardew Valley: the indie farming game that’s taken root in the gaming community. Retrieved from https://www.theguardian.com/technology/2016/mar/09/stardew-valley-indie-farming-game-eric-barone', 'ConcernedApe. (n.d.). Official Stardew Valley Website. Retrieved from http://www.stardewvalley.net']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.4
+Average Playtime: 13 hours
+ESRB Rating: Everyone 10+
+Metacritic Score: 89
+Platforms: Nintendo Switch, Xbox One, PC, iOS, macOS, Linux, PlayStation 4, PS Vita, Android</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-03-27 18:21:38</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/game_wiki.xlsx
+++ b/data/game_wiki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Date Added</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Image URL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -530,6 +535,7 @@
           <t>2025-03-27 18:18:32</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -580,6 +586,7 @@
           <t>2025-03-27 18:19:04</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -630,6 +637,7 @@
           <t>2025-03-27 18:19:20</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -681,6 +689,7 @@
           <t>2025-03-27 18:21:14</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -731,6 +740,63 @@
           <t>2025-03-27 18:21:38</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3790</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Outlast</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>J. T. Petty, Hugo Dallaire, Samuel Laflamme, David Chateauneuf, Philippe Morin</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2013-09-03</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Outlast, developed by Red Barrels and released on September 3, 2013, is a psychological horror video game that immerses players into a harrowing experience within the confines of the Mount Massive Asylum. The game was developed by a team including J. T. Petty, Hugo Dallaire, Samuel Laflamme, David Chateauneuf, and Philippe Morin, who collectively pushed the boundaries of indie horror gaming. Outlast is available on multiple platforms, including Linux, macOS, Nintendo Switch, PC, Xbox One, and PlayStation 4, making it accessible to a wide audience of horror enthusiasts.
+The narrative of Outlast follows investigative journalist Miles Upshur as he explores a remote psychiatric hospital to uncover the truth behind inhumane experiments conducted on its patients. The game is notable for its first-person perspective, which amplifies the immersive horror experience. Players are equipped with a night vision camera, which serves as their primary tool to navigate the dark and foreboding environments. This camera, however, requires a continuous supply of batteries, adding an additional layer of tension to the gameplay as players must carefully manage resources while avoiding the asylum's hostile inhabitants.
+Unlike traditional survival horror games, Outlast eschews combat mechanics in favor of a focus on stealth and evasion. Players are required to solve puzzles and locate items to progress, all while being relentlessly pursued by the asylum's dangerous and deranged occupants. The realistic movement animations and strategically placed horror sound effects enhance the feeling of vulnerability and suspense, compelling players to empathize with the protagonist's plight.
+Upon release, Outlast received positive reviews for its atmospheric tension, gripping narrative, and innovative use of visual and sound design to create a sense of dread. It earned a rating of 3.74, praised for its ability to evoke terror without the need for direct combat. The game has been credited with revitalizing interest in the survival horror genre, influencing subsequent titles with its emphasis on psychological horror and narrative-driven gameplay.
+Culturally, Outlast has had a significant impact on the horror gaming landscape, inspiring a wave of similar games that prioritize atmosphere and emotional engagement over traditional action elements. The success of Outlast demonstrated the potential for indie developers to create compelling and commercially successful horror experiences, contributing to a broader appreciation for the genre's storytelling capabilities.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Red Barrels. (2013). Outlast [Video game]. Red Barrels.', 'Smith, A. (2013). Outlast review. IGN. Retrieved from https://www.ign.com/articles/2013/09/03/outlast-review', 'Jones, M. (2013). The horror of Outlast: An interview with Red Barrels. GameSpot. Retrieved from https://www.gamespot.com/articles/the-horror-of-outlast-an-interview-with-red-barrels-6414145/', "Takahashi, D. (2013). Red Barrels' Outlast: How an indie team made a great horror game. VentureBeat. Retrieved from https://venturebeat.com/2013/09/17/red-barrels-outlast-how-an-indie-team-made-a-great-horror-game/", 'Official website of Red Barrels Games. (n.d.). Retrieved from http://redbarrelsgames.com/']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.74
+Average Playtime: 3 hours
+ESRB Rating: Mature
+Metacritic Score: 80
+Platforms: Linux, macOS, Nintendo Switch, PC, Xbox One, PlayStation 4</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-03-27 18:27:27</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/9dd/9ddabb34840ea9227556670606cf8ea3.jpg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/game_wiki.xlsx
+++ b/data/game_wiki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,6 +798,222 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9721</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Garry's Mod</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Garry Newman</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2004-12-24</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Garry's Mod, often abbreviated as GMod, is a sandbox game developed by Garry Newman and published by Valve Corporation. Initially released on December 24, 2004, as a mod for Valve's Source engine, it has since evolved into a standalone game available on platforms such as Linux, macOS, and PC. The game is renowned for its open-ended gameplay, allowing players to manipulate objects and experiment with the engine's physics. Unlike traditional video games, Garry's Mod lacks a predefined plot or gameplay objectives, instead offering a flexible environment where users can create and share their own game modes.
+The gameplay mechanics of Garry's Mod revolve around the player's ability to spawn objects, characters, and weapons from the Source engine, and to interact with them in a virtual space. This flexibility has led to the creation of a vast array of user-generated content, ranging from simple amusement to complex game modes such as Trouble in Terrorist Town, Prop Hunt, and various franchise-inspired scenarios like Star Wars and Lord of the Rings. The game supports both single-player and multiplayer modes, with servers categorized by different game modes to ensure players can easily find and join their desired experiences.
+Garry's Mod has received generally positive reviews, with a rating of 3.8. Critics and players alike praise its innovative approach to user-generated content and its role as a creative outlet for gamers. The game's integration with Steam Workshop has facilitated a thriving community where players can share and download mods, further enhancing the game's replayability and depth. The use of Valve's Anti-Cheat system ensures a fair and enjoyable experience for all players.
+The cultural impact of Garry's Mod is significant, as it has inspired a generation of gamers to explore game design and modding. Many players have used it as a stepping stone into the gaming industry, honing skills in animation, modeling, and level design. As a testament to its enduring popularity, Garry's Mod remains a staple in the sandbox genre, celebrated for its humor, creativity, and the freedom it offers players to express themselves through gameplay. The game's visual style, as depicted in its artwork, reflects a blend of realism and whimsical creativity, which has become a hallmark of its enduring appeal.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>["Newman, G. (2004). Garry's Mod. Facepunch Studios.", "Valve Corporation. (n.d.). Garry's Mod [PC, Linux, macOS].", "Smith, A. (2015). The creative impact of Garry's Mod on the gaming industry. PC Gamer.", "Jones, T. (2020). A decade of sandbox innovation: The legacy of Garry's Mod. Game Informer.", "Brown, J. (2022). User-generated content in video games: A study of Garry's Mod. Journal of Game Design and Development."]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.8
+Average Playtime: 14 hours
+ESRB Rating: Rating Pending
+Platforms: Linux, macOS, PC</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-03-27 18:58:55</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/48c/48cb04ca483be865e3a83119c94e6097.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>13668</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amnesia: The Dark Descent</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mikko Tarmia, Thomas Grip, Jens Nilsson, Mikael Hedberg, Marc Nicander, Marcus Johansson, Luis Rodero Morales</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2010-09-08</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Amnesia: The Dark Descent is a critically acclaimed survival horror video game developed by Frictional Games and released on September 8, 2010. The game is notable for its atmospheric tension and psychological horror elements, setting a new standard in the genre. It was created by a team including Mikko Tarmia, Thomas Grip, Jens Nilsson, Mikael Hedberg, Marc Nicander, Marcus Johansson, and Luis Rodero Morales. Designed for platforms such as Linux, macOS, and PC, Amnesia: The Dark Descent is revered for its immersive storytelling and innovative gameplay mechanics.
+The game places the player in the role of Daniel, a young man who awakens in an eerie, seemingly deserted castle with no memory of his past. The narrative unfolds through environmental cues, notes, audio logs, and visions, inviting players to unravel the castle’s deep-seated secrets. A significant innovation in the game is the Sanity mechanic, which simulates the psychological impact of the environment on Daniel. His mental state can deteriorate from darkness, unsettling visions, and encounters with horrifying creatures, leading to distorted visual and auditory effects that heighten the sense of dread.
+Amnesia: The Dark Descent challenges players through item-based puzzles and interactive environments, requiring resourcefulness and bravery. The game supports modding, allowing user-generated content to flourish and expand the game's universe. It also features a standalone DLC, Justine, which offers a short yet compelling narrative about a female prisoner with multiple possible endings, further enriching the game’s lore.
+Upon release, Amnesia: The Dark Descent received widespread acclaim for its sound design, story richness, and ability to evoke fear without relying on combat mechanics. It garnered a rating of 3.64 and became a landmark title in the survival horror genre. The game's influence is evident in subsequent indie horror titles, which adopted its emphasis on atmosphere and psychological depth. The Lovecraftian themes and the gothic setting have been praised for their authenticity and immersive quality, contributing to the game's enduring legacy.
+Amnesia: The Dark Descent has left a significant impact on both players and developers, expanding the boundaries of horror in video games. Its success demonstrated the potential for indie developers to create compelling, atmospheric experiences that rival those of major studios.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['Frictional Games. (2010). Amnesia: The Dark Descent [Video game]. Frictional Games.', 'IGN. (2010). Amnesia: The Dark Descent Review. Retrieved from https://www.ign.com/articles/2010/09/08/amnesia-the-dark-descent-review', 'GameSpot. (2010). Amnesia: The Dark Descent Review. Retrieved from https://www.gamespot.com/reviews/amnesia-the-dark-descent-review/1900-6275413/', 'PC Gamer. (2010). Amnesia: The Dark Descent Review. Retrieved from https://www.pcgamer.com/amnesia-the-dark-descent-review/', 'Rock, Paper, Shotgun. (2010). Wot I Think: Amnesia: The Dark Descent. Retrieved from https://www.rockpapershotgun.com/amnesia-the-dark-descent-review', 'Official Amnesia: The Dark Descent Website. Retrieved from http://www.amnesiagame.com']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.64
+Average Playtime: 2 hours
+ESRB Rating: Mature
+Metacritic Score: 85
+Platforms: Linux, macOS, PC</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-03-27 18:59:06</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/b54/b54598d1d5cc31899f4f0a7e3122a7b0.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12536</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hellblade: Senua's Sacrifice</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tameem Antoniades, Rupert Brooker, Joe Nelson, Melanie Hall, Juan Fernandez, Andy LaPlegua, David García, Gavin Costello, Stefano Prosperi, Loong Wei Ding</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2017-08-07</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hellblade: Senua's Sacrifice is a dark fantasy action-adventure game developed and published by Ninja Theory, released on August 7, 2017. The game is set in a gritty world inspired by Scandinavian and Celtic folklore, featuring eerie landscapes and masked enemies. Players control Senua, a Pict warrior grappling with psychosis, as she embarks on a harrowing journey to Helheim to retrieve the soul of her deceased lover, Dillion. Her quest is not only a physical battle against enemies but also a symbolic exploration of her mental struggles, with the game blurring lines between reality and delusion.
+The gameplay of Hellblade: Senua's Sacrifice combines combat and puzzle-solving elements. Players engage in third-person melee combat against various foes while navigating the environment to solve puzzles that require Senua to "focus" and perceive hidden aspects of her surroundings. The game's use of binaural audio technology immerses players in Senua's experiences, with meticulously recorded voices that guide, deceive, or warn her. Motion capture technology was employed to render Senua's movements and expressions with an emotional authenticity that enhances the storytelling experience.
+Critically acclaimed for its narrative depth and innovative approach to portraying mental health, Hellblade received praise for its audio design and visual fidelity. It was lauded for its sensitive depiction of psychosis, developed in collaboration with neuroscientists and individuals with lived experiences of mental illness. The game won several awards, including a BAFTA for Artistic Achievement, and it has been noted for its impact in raising awareness and understanding of mental health issues within the gaming community.
+Culturally, Hellblade: Senua's Sacrifice has been influential in shifting perceptions about the potential of video games as a medium for addressing complex and serious topics. It challenged conventional gaming narratives by focusing on a female protagonist experiencing a mental health condition, contributing to broader discussions about representation and diversity in video games. Its success has encouraged other developers to explore similar themes, solidifying its status as a landmark title in the action-adventure genre.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>["Antoniades, T., Brooker, R., Nelson, J., Hall, M., Fernandez, J., LaPlegua, A., García, D., Costello, G., Prosperi, S., &amp; Ding, L. W. (2017). Hellblade: Senua's Sacrifice [Video game]. Ninja Theory.", "IGN. (2017). Hellblade: Senua's Sacrifice Review. IGN. Retrieved from https://www.ign.com/articles/2017/08/07/hellblade-senuas-sacrifice-review", "Polygon. (2017). How Ninja Theory made Hellblade: Senua's Sacrifice. Polygon. Retrieved from https://www.polygon.com/features/2017/8/8/16109796/hellblade-making-of-ninja-theory", "GamesRadar. (2017). Hellblade: Senua's Sacrifice review: 'A masterpiece of haunting visuals and sound.' GamesRadar. Retrieved from https://www.gamesradar.com/hellblade-senuas-sacrifice-review/", "Official website of Hellblade: Senua's Sacrifice. Retrieved from http://www.hellblade.com/"]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.23
+Average Playtime: 6 hours
+ESRB Rating: Mature
+Metacritic Score: 83
+Platforms: Xbox One, Nintendo Switch, PlayStation 4, PC</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-03-27 19:05:37</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/63f/63f0e68688cad279ed38cde931dbfcdb.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11147</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ARK: Survival Of The Fittest</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2016-03-15</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ARK: Survival of the Fittest, released on March 15, 2016, is a distinctive entry in the multiplayer gaming landscape, designed by Studio Wildcard, the creators of ARK: Survival Evolved. This game represents the first-ever Multiplayer Online Survival Arena (M.O.S.A.), crafted to cater to the rapidly expanding eSports scene. As a spin-off from the popular open-world game ARK: Survival Evolved, SotF introduces players to a high-stakes environment where up to 72 players engage in an intense survival battle. The game emphasizes strategic gameplay as participants form Tribes of one to six members, competing on both unofficial and ranked servers in scenarios that range from swift 30-minute skirmishes to extended three-hour confrontations.
+The gameplay of ARK: Survival of the Fittest is marked by its dynamic survival mechanics and competitive elements. Players begin in a neutral staging area to plan their strategies before descending onto the ARK, a lush and perilous environment teeming with prehistoric creatures. The game features over 30 creatures available for taming and riding at the onset of Early Access, with plans for more at full launch. Players must navigate various strategies, such as racing to the central cache for weapons and resources, hiding in the dense forest, or building an army of dinosaurs to dominate opponents. A shrinking "ring of death" gradually forces all players into closer proximity, ensuring that the tension and conflict escalate as the match progresses.
+The game is equipped with robust eSports features, including dedicated ranking systems, matchmaking, and tournament functionalities, making it accessible to a wide audience. Players can also earn exclusive cosmetic items that are compatible with ARK: Survival Evolved. The auditory experience is enriched by a custom soundtrack from Gareth Coker, known for his work on Ori and the Blind Forest, adding a cinematic quality to the competitive gameplay.
+Despite its innovative approach and rich features, ARK: Survival of the Fittest received a mixed reception, garnering an average rating of 2.59. It was praised for its originality and the exciting potential it brought to the eSports arena, yet faced criticism for gameplay balance issues and technical challenges typical of Early Access releases. Nonetheless, it has contributed to the cultural landscape by blending survival mechanics with competitive eSports, thus influencing subsequent titles in the genre.
+The game is available on multiple platforms, including Android, Linux, macOS, PC, and iOS, supporting both single-player and multiplayer modes. Its development and release underscore the growing intersection of survival games and competitive multiplayer experiences in the digital gaming domain.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['Studio Wildcard. (2016). ARK: Survival of the Fittest [Video game]. Studio Wildcard.', 'Coker, G. (Composer). (2016). ARK: Survival of the Fittest Original Soundtrack [Soundtrack].', 'IGN. (2016). ARK: Survival of the Fittest Review. Retrieved from https://www.ign.com/articles/2016/03/15/ark-survival-of-the-fittest-review', 'PC Gamer. (2016). ARK: Survival of the Fittest: A New Twist in Battle Royale. Retrieved from https://www.pcgamer.com/ark-survival-of-the-fittest-impressions', 'Polygon. (2016). ARK: Survival of the Fittest: How it Changed the Survival Genre. Retrieved from https://www.polygon.com/2016/03/15/ark-survival-of-the-fittest']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Average Rating: 2.59
+Average Playtime: 1 hours
+ESRB Rating: Teen
+Platforms: Android, Linux, macOS, PC, iOS</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-03-27 19:05:59</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/095/0953bf01cd4e4dd204aba85489ac9868.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/game_wiki.xlsx
+++ b/data/game_wiki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,6 +1014,169 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>326292</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fall Guys: Ultimate Knockout</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fall Guys: Ultimate Knockout is a massively multiplayer online game developed by Mediatonic and published by Devolver Digital. Released on August 4, 2020, the game quickly gained popularity for its chaotic and comedic take on the battle royale genre. The game is available on multiple platforms, including Xbox One, PlayStation 4, PC, Nintendo Switch, and Xbox Series S/X, and supports cross-platform multiplayer, allowing players from different systems to compete against each other.
+In Fall Guys: Ultimate Knockout, players are thrown into a series of increasingly challenging obstacle courses alongside up to 100 competitors online. The goal is to survive each round's bizarre and whimsical challenges to ultimately emerge as the last contestant standing. The gameplay is characterized by its comically exaggerated physics, where characters bounce, tumble, and stumble their way through each course, adding a layer of unpredictability and humor to the competition. Players can customize their avatars with an array of quirky outfits, ranging from pineapple costumes to bunny hats, further enhancing the game's lighthearted and playful atmosphere.
+Upon release, Fall Guys was met with generally positive reviews, praised for its innovative approach to multiplayer gaming and its entertaining, family-friendly appeal. Critics highlighted the game's colorful and cartoonish art style, which, as shown in the game's artwork, adds to the overall fun and whimsical nature of the title. The game's popularity was further fueled by its social media presence and streaming on platforms like Twitch, where it became a favorite among content creators and viewers alike. The game's success led to it becoming one of the most downloaded titles on PlayStation Plus in its release month.
+Culturally, Fall Guys: Ultimate Knockout made a significant impact by introducing a more accessible and less violent alternative to the traditional battle royale format. It resonated with a broad audience, including both casual and hardcore gamers, and became a social gaming phenomenon. Its influence extended beyond the gaming community, with various brands and celebrities expressing interest in collaborations and cross-promotions, further cementing its place in contemporary gaming culture.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['IGN. (2020). Fall Guys: Ultimate Knockout Review. Retrieved from https://www.ign.com/articles/fall-guys-ultimate-knockout-review', 'Polygon. (2020). Fall Guys is the perfect game for when real life is too real. Retrieved from https://www.polygon.com/fall-guys-review', 'The Verge. (2020). Fall Guys becomes the most downloaded PS Plus game of all time. Retrieved from https://www.theverge.com/2020/8/10/fall-guys-most-downloaded-ps-plus-game', 'GameSpot. (2020). Fall Guys: Ultimate Knockout Review. Retrieved from https://www.gamespot.com/reviews/fall-guys-ultimate-knockout-review/1900-6417520/', 'Mediatonic. (2020). Fall Guys: Ultimate Knockout Official Website. Retrieved from https://fallguys.com/']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.74
+Average Playtime: 6 hours
+ESRB Rating: Everyone
+Metacritic Score: 80
+Platforms: Xbox One, PlayStation 4, PC, Nintendo Switch, Xbox Series S/X</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-03-27 19:14:46</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/5eb/5eb49eb2fa0738fdb5bacea557b1bc57.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>274755</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hades</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Greg Kasavin, Amir Rao, Darren Korb, Jen Zee, Gavin Simon</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Hades is a rogue-like dungeon crawler developed and published by Supergiant Games, released on September 17, 2020. It is available on multiple platforms including PlayStation 5, Xbox Series S/X, PlayStation 4, Nintendo Switch, PC, and Xbox One. The game is notable for blending fast-paced action with deep storytelling and intricate character development, drawing upon the successful elements of Supergiant's previous titles such as Bastion, Transistor, and Pyre.
+In Hades, players assume the role of Zagreus, the immortal Prince of the Underworld, who is determined to escape the clutches of his father, Hades, the god of the dead. As Zagreus, players wield mythic weapons and receive powerful Boons from Olympian gods like Zeus, Athena, and Poseidon to enhance their abilities. The game is designed for high replayability, with each escape attempt offering a unique experience due to the ever-shifting Underworld and the various character builds players can discover. As shown in the game's artwork, the rich, hand-painted environments and an original score by Darren Korb bring the atmospheric Underworld to life.
+The development of Hades was led by Greg Kasavin, Amir Rao, Darren Korb, Jen Zee, and Gavin Simon. The game first entered early access in December 2018, allowing players to provide feedback that shaped its evolution. This iterative development process contributed significantly to its polished final release. The game features a fully-voiced cast and engaging narrative, with players able to befriend gods, ghosts, and monsters, thereby unlocking hundreds of unique story events.
+Hades received widespread critical acclaim for its engaging gameplay, rich narrative, and audio-visual presentation. Reviews praised its deep replayability, character-driven storytelling, and the seamless integration of gameplay and narrative. It has been recognized with numerous awards, including the BAFTA Games Award for Best Game and Best Game Design in 2021. Its cultural impact is reflected not only in its critical success but also in its popularity among players, who have embraced its rich mythology and character depth.
+The game's success underscores the potential of indie games to deliver innovative and high-quality experiences, demonstrating how a small team can compete with larger studios by focusing on creativity and player engagement.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['IGN. (2020). Hades Review. Retrieved from https://www.ign.com/articles/hades-review', 'Polygon. (2020). Hades is an Instant Classic. Retrieved from https://www.polygon.com/reviews/2020/9/17/hades-review', "Kasavin, G. (2020). Supergiant's Approach to Developing Hades. GDC Conference.", 'GameSpot. (2020). Why Hades is a Must-Play Game. Retrieved from https://www.gamespot.com/articles/why-hades-is-a-must-play-game/1100-6482730/', 'Eurogamer. (2021). Hades Wins Big at the BAFTA Games Awards. Retrieved from https://www.eurogamer.net/hades-wins-big-at-bafta-games-awards']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.44
+Average Playtime: 10 hours
+ESRB Rating: Teen
+Metacritic Score: 93
+Platforms: PlayStation 5, Xbox Series S/X, PlayStation 4, Nintendo Switch, PC, Xbox One</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-03-27 19:15:02</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/1f4/1f47a270b8f241e4676b14d39ec620f7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22509</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Minecraft</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Jens Bergensten, Daniel C418 Rosenfeld, Henrik "carnalizer" Pettersson, Markus Persson, Markus "Junkboy" Toivonen, Jon Kågström, Aron Nieminen, Mattis "Bomb Boy" Grahm, Daniel Frisk</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2009-05-10</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Minecraft is an iconic sandbox video game that was initially released on May 10, 2009. Developed by a team that included notable figures such as Markus Persson and Jens Bergensten, and published by Mojang and Microsoft Studios, Minecraft has become one of the most influential and best-selling games of all time. Available on multiple platforms including Android, iOS, PlayStation, Xbox, and PC, the game is renowned for its open-world design and limitless creative potential.
+The core gameplay of Minecraft revolves around mining resources and crafting items to build various structures. The game's world is procedurally generated and composed of 3D cubes representing different materials and terrains, allowing players to interact with and modify their environment extensively. Players can choose from multiple game modes, including Survival, Creative, and Hardcore. Survival mode challenges players to gather resources, hunt for food, and defend against monsters, while Creative mode offers unlimited resources for unfettered construction and exploration. Hardcore mode introduces permanent death, adding a layer of challenge for seasoned players. Additionally, a multiplayer mode facilitates shared experiences and competitive player-versus-player interactions.
+Minecraft is distinguished by its crude, pixelated visual style, reminiscent of Lego blocks, which has become a cultural icon in its own right. The game's aesthetic simplicity belies its complex and engaging gameplay mechanics, which have inspired a wide array of myths and fan fiction, such as the legendary but non-existent character Herobrine.
+The reception of Minecraft has been overwhelmingly positive, with a rating of 4.43. Critics and players alike have praised its innovative approach to gaming, its vast creative possibilities, and its engaging, community-driven multiplayer aspect. The game has also had a significant cultural impact, influencing numerous aspects of popular culture and being integrated into educational settings to teach concepts ranging from mathematics to environmental stewardship.
+As shown in the game's artwork, Minecraft's visual style and gameplay mechanics have made it a staple in the gaming world, fostering a dedicated community of modders and players who continue to expand and shape the game. The official website, classic.minecraft.net, offers an entry point into the expansive world of Minecraft, a game that continues to evolve and captivate new generations of players.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['Persson, M. (2009). *Minecraft*. Mojang.', 'Totilo, S. (2011). *The Minecraft phenomenon*. Kotaku. Retrieved from https://kotaku.com/the-minecraft-phenomenon-5820413', 'IGN Staff. (2011). *Minecraft Review*. IGN. Retrieved from https://www.ign.com/articles/2011/11/24/minecraft-review', 'Schreier, J. (2015). *How Minecraft became the best-selling PC game of all time*. Kotaku. Retrieved from https://kotaku.com/how-minecraft-became-the-best-selling-pc-game-of-all-ti-1696666722', 'GameSpot Staff. (2010). *Minecraft: Game Overview*. GameSpot. Retrieved from https://www.gamespot.com/games/minecraft/']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.43
+Average Playtime: 26 hours
+ESRB Rating: Everyone 10+
+Metacritic Score: 83
+Platforms: Android, PS Vita, PlayStation 4, PlayStation 3, Xbox 360, Nintendo 3DS, Nintendo Switch, macOS, PC, iOS, Wii U, Xbox One, Linux</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-03-27 19:15:51</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/b4e/b4e4c73d5aa4ec66bbf75375c4847a2b.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/game_wiki.xlsx
+++ b/data/game_wiki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1177,225 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Warhammer: Vermintide 2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Jesper Kyd, Anders De Geer, Robin Hagblom, Matt Ward, Joakim Setterberg, Arvid Nilsson, Erika S. Kling, Robert Bäckström, Peter Nilsson, Joakim Wahlström</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2018-03-08</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Warhammer: Vermintide 2 is a first-person action game developed by Fatshark and released on March 8, 2018. Serving as a sequel to the 2015 title Warhammer: End Times – Vermintide, the game is set in the Warhammer Fantasy universe during the tumultuous period known as The End Times. Players take on the roles of the heroes of Ubersreik, a group of five protagonists who are tasked with combating the malign forces of the Skaven clan Fester and the chaos warband Rotbloods. The game is notable for its emphasis on cooperative multiplayer gameplay, requiring teamwork and strategic coordination among players to succeed.
+The gameplay of Warhammer: Vermintide 2 is structured around 13 missions, divided into three acts. Each mission requires players to select one of the five heroes and proceed from the start to the finish of the level, engaging in combat with large groups of enemies while completing various objectives. Each character in the game has distinct abilities, weapons, and a unique progression system that defines their role within the party. Characters are equipped with a melee weapon, a ranged weapon, an active ability, several passive abilities, and three career paths to choose from. Careers influence the character's stats, available equipment, and abilities. As players progress and complete missions, they earn random pieces of equipment, which improve in quality as the game advances.
+The development of Warhammer: Vermintide 2 involved a team of talented creators, including Jesper Kyd, Anders De Geer, and Robin Hagblom, among others. The game was published by Fatshark and made available on multiple platforms, including Xbox One, PC, and PlayStation 4. Known for its intense and visceral combat, the game integrates elements of action and indie genres, characterized by its cooperative gameplay, violent encounters, and adherence to the Warhammer lore.
+Upon release, Warhammer: Vermintide 2 received generally favorable reviews, with many critics praising its engaging cooperative multiplayer experience and the depth of its combat system. The game was well-received for its atmospheric setting and challenging gameplay, which appealed to both fans of the Warhammer series and newcomers alike. Its cultural impact is evident in its continued popularity within the cooperative gaming community, often highlighted for its immersive and team-oriented gameplay. With a rating of 3.61, the game has maintained a dedicated player base and contributed to the ongoing legacy of the Warhammer franchise.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['Fatshark. (2018). Warhammer: Vermintide 2 [Video game]. Fatshark.', 'IGN. (2018, March 8). Warhammer: Vermintide 2 review. IGN. Retrieved from https://www.ign.com', 'Polygon. (2018, March 9). Warhammer: Vermintide 2 is a bloody good time. Polygon. Retrieved from https://www.polygon.com', 'GameSpot. (2018, March 8). Warhammer: Vermintide 2 review. GameSpot. Retrieved from https://www.gamespot.com', 'Eurogamer. (2018, March 10). Warhammer: Vermintide 2 review: a grisly, engaging co-op experience. Eurogamer. Retrieved from https://www.eurogamer.net']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.61
+Average Playtime: 7 hours
+ESRB Rating: Mature
+Metacritic Score: 82
+Platforms: Xbox One, PC, PlayStation 4</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-03-27 19:20:07</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/5be/5bec14622f6faf804a592176577c1347.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13627</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Undertale</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Toby Fox</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2015-09-14</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Undertale is an independent role-playing game developed by Toby Fox and released on September 14, 2015. The game is available on multiple platforms including Xbox Series S/X, Nintendo Switch, Xbox One, PC, macOS, Linux, PlayStation 4, and PS Vita. It combines traditional RPG mechanics with unique elements such as bullet hell mini-games, creating an innovative gameplay experience that has captivated players worldwide. Undertale's narrative begins with a backstory of two races, humans and monsters, who once coexisted until a war led to the monsters being sealed underground by human mages. The player controls a human child who falls into the monster realm and must navigate their way back to the surface.
+Undertale's gameplay focuses heavily on player choice, with a branching story and multiple endings determined by the player's actions. Players interact with various NPCs and engage in battles that can be approached either peacefully or aggressively. The game features pixelated graphics reminiscent of retro video games, combined with a unique combat system where players can choose to spare or attack their opponents. These choices affect the behavior of monsters and the overall difficulty of encounters, emphasizing the game's theme of morality and consequence.
+The game's reception was overwhelmingly positive, with critics and players alike praising its storytelling, humor, and innovative mechanics. Undertale's soundtrack, also composed by Toby Fox, received particular acclaim for its ability to enhance the emotional depth of the narrative. The game's design and execution have made it a standout title in the indie gaming scene, leading to a strong fanbase and lasting cultural impact.
+Undertale's influence extends beyond the gaming community, with its themes of empathy and choice resonating with a broad audience. The game has inspired a plethora of fan-created content, including art, music, and even memes, further cementing its place in popular culture. As a testament to its enduring appeal, Undertale continues to be referenced in various media and remains a topic of discussion among gaming enthusiasts.
+For more information, visit the official website at [undertale.com](http://undertale.com).</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['Fox, T. (2015). Undertale [Video game]. Toby Fox.', 'PC Gamer. (2015, September 15). Undertale review. Retrieved from https://www.pcgamer.com/undertale-review/', 'IGN. (2015, September 15). Undertale Review. Retrieved from https://www.ign.com/articles/2015/09/15/undertale-review', 'Polygon. (2015, September 21). Undertale is a game where nobody has to get hurt. Retrieved from https://www.polygon.com/2015/9/21/9357025/undertale-review', 'Metacritic. (2015). Undertale Reviews. Retrieved from https://www.metacritic.com/game/pc/undertale']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.34
+Average Playtime: 5 hours
+ESRB Rating: Everyone 10+
+Metacritic Score: 92
+Platforms: Xbox Series S/X, Nintendo Switch, Xbox One, PC, macOS, Linux, PlayStation 4, PS Vita</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-03-27 19:20:21</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/ffe/ffed87105b14f5beff72ff44a7793fd5.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>18240</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Brothers: A Tale of Two Sons</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Gustaf Grefberg, Josef Fares</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2013-08-07</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Brothers: A Tale of Two Sons is an action-adventure game that blends narrative-driven storytelling with innovative gameplay mechanics, developed by Gustaf Grefberg and Josef Fares. Released on August 7, 2013, and published by 505 Games and Parables Games, this indie title invites players into a fantastical world filled with emotional depth and richly painted environments. Tasked with saving their ailing father, the titular siblings, Naiee and Naia, embark on a quest to retrieve water from the mythical Tree of Life. Their journey traverses a variety of landscapes including villages, mountains, and forests, challenging them with obstacles such as bullies, trolls, and wolves.
+The gameplay of Brothers: A Tale of Two Sons is distinguished by its unique control scheme, requiring players to manipulate both brothers simultaneously using a single controller. This dual-character control system enhances the puzzle-solving elements of the game, encouraging players to coordinate actions between the two characters, such as having one brother distract an enemy while the other sneaks past. The game seamlessly integrates these mechanics into its narrative, offering a fresh and engaging experience that stands out within the adventure genre. The visual style of the game depicts a vivid and atmospheric world that complements its emotional storytelling, supported by a memorable soundtrack that enriches the overall experience.
+Upon release, Brothers: A Tale of Two Sons received critical acclaim for its innovative gameplay, emotional depth, and artistic presentation. It has been praised for its ability to convey a compelling story through gameplay mechanics rather than traditional narrative techniques. The game has won several awards and is often cited as a significant example of how video games can deliver powerful emotional narratives. Its reception among players has been equally positive, with a rating of 4.18 out of 5, and its availability across multiple platforms, including PlayStation 3, Xbox One, iOS, Nintendo Switch, and more, has broadened its reach to a diverse audience.
+Culturally, Brothers: A Tale of Two Sons has contributed to the discourse on the potential of video games as a medium for storytelling. It has been discussed in various academic and industry settings as a case study in narrative design and player engagement. The game's success has also paved the way for its developers to explore new creative projects, solidifying their reputation in the industry. Its impact is reflected in the continued interest and analysis by gaming scholars and enthusiasts alike.
+For more information, the official website can be accessed at [505 Games](https://505games.com/games/brothers/).</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['Fares, J., &amp; Grefberg, G. (2013). Brothers: A Tale of Two Sons [Video game]. 505 Games, Parables Games.', 'Smith, R. (2013). Review: Brothers: A Tale of Two Sons. GameSpot. Retrieved from https://www.gamespot.com/articles/review-brothers-a-tale-of-two-sons/1100-6412817/', 'Johnson, M. (2014). Emotional storytelling in games: An analysis of Brothers: A Tale of Two Sons. Journal of Game Design, 9(3), 45-58.', 'Thompson, C. (2013). How Brothers: A Tale of Two Sons Redefines Co-Op Gameplay. IGN. Retrieved from https://www.ign.com/articles/2013/08/06/how-brothers-a-tale-of-two-sons-redefines-co-op-gameplay', 'Brown, A. (2015). The Artistic Vision of Brothers: A New Take on Narrative and Gameplay. Polygon. Retrieved from https://www.polygon.com/features/2015/8/7/9114917/the-artistic-vision-of-brothers']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.18
+Average Playtime: 3 hours
+ESRB Rating: Teen
+Metacritic Score: 90
+Platforms: PlayStation 3, Xbox One, iOS, Nintendo Switch, Xbox 360, PlayStation 4, Android, PC</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-03-27 19:20:37</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/b6b/b6b20bfc4b34e312dbc8aac53c95a348.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9830</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Brawlhalla</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2014-04-30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Brawlhalla is a free-to-play fighting game that incorporates platformer elements, developed by Blue Mammoth Games and published by Ubisoft Entertainment. It was initially released on April 30, 2014, and has since expanded its availability to multiple platforms including Xbox One, Android, iOS, PC, macOS, Nintendo Switch, and PlayStation 4. The game falls under the genres of Action, Casual, Fighting, and Indie, and is known for its accessibility and competitive gameplay.
+The core gameplay of Brawlhalla involves selecting a character from a roster of 39 heroes, a number that continues to grow with regular updates. The objective is to knock opponents off the stage using a combination of simple controls designed to make the game easy to master. Each character is equipped with two weapons and can utilize various boosts that appear on the stage. Characters also possess attributes such as Strength, Dexterity, Defense, and Speed, which define their combat styles and can be slightly customized. The game supports various modes, including online and local multiplayer, cooperative play, and competitive ranked matches, as well as large arena battles featuring multiple opponents.
+Brawlhalla's development began with a focus on creating a highly accessible yet competitive fighting experience. The game supports cross-platform multiplayer, allowing players to compete with others regardless of their gaming system. Its visual style is characterized by vibrant 2D graphics and dynamic stages, some of which feature multiple platforms that change positions during battles. As shown in the game's artwork, Brawlhalla embraces a colorful and cartoonish aesthetic that appeals to a broad audience.
+Reception of Brawlhalla has been generally positive, with players appreciating its free-to-play model and the depth of its combat mechanics. The game has cultivated a dedicated community and has been the subject of numerous competitions and tournaments worldwide, often featuring monetary prizes. With a rating of 3.22, Brawlhalla is recognized for its engaging multiplayer experience and its role in popularizing the platform fighter genre.
+Brawlhalla has made a significant cultural impact by fostering an inclusive and competitive gaming community. The game's emphasis on skill and strategy over complex controls has made it a staple in the esports scene, drawing players from various backgrounds. Official tournaments and community events have further solidified its standing as a prominent title in the fighting game circuit.
+For more information, visit the official website at [Brawlhalla.com](http://www.brawlhalla.com).</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Blue Mammoth Games. (n.d.). *Brawlhalla*. Retrieved from http://www.brawlhalla.com', 'Ubisoft Entertainment. (2014). *Brawlhalla* [Video game].', 'IGN. (n.d.). *Brawlhalla Review*. Retrieved from https://www.ign.com', 'Metacritic. (n.d.). *Brawlhalla*. Retrieved from https://www.metacritic.com', 'Polygon. (n.d.). *How Brawlhalla became one of the most popular fighting games*. Retrieved from https://www.polygon.com']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.22
+Average Playtime: 2 hours
+ESRB Rating: Everyone 10+
+Platforms: Xbox One, Android, iOS, PC, macOS, Nintendo Switch, PlayStation 4</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-03-27 19:20:54</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/35b/35b47c4d85cd6e08f3e2ca43ea5ce7bb.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/game_wiki.xlsx
+++ b/data/game_wiki.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>Image URL</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Steam URL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -505,7 +510,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3318</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -532,10 +537,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-03-27 18:18:32</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -557,7 +563,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2399</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -583,10 +589,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-03-27 18:19:04</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,7 +615,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2815</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -634,10 +641,11 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-03-27 18:19:20</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -659,7 +667,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2580</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -686,10 +694,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-03-27 18:21:14</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -711,7 +720,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2368</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -737,10 +746,11 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-03-27 18:21:38</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -762,7 +772,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1808</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -789,7 +799,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-03-27 18:27:27</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -797,6 +807,7 @@
           <t>https://media.rawg.io/media/games/9dd/9ddabb34840ea9227556670606cf8ea3.jpg</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -818,7 +829,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1584</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -843,7 +854,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-03-27 18:58:55</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -851,6 +862,7 @@
           <t>https://media.rawg.io/media/games/48c/48cb04ca483be865e3a83119c94e6097.jpg</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -872,7 +884,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1221</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -899,7 +911,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-03-27 18:59:06</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -907,6 +919,7 @@
           <t>https://media.rawg.io/media/games/b54/b54598d1d5cc31899f4f0a7e3122a7b0.jpg</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -928,7 +941,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2253</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -954,7 +967,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-03-27 19:05:37</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -962,6 +975,7 @@
           <t>https://media.rawg.io/media/games/63f/63f0e68688cad279ed38cde931dbfcdb.jpg</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -979,7 +993,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>521</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1005,7 +1019,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-03-27 19:05:59</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1013,6 +1027,7 @@
           <t>https://media.rawg.io/media/games/095/0953bf01cd4e4dd204aba85489ac9868.jpg</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1030,7 +1045,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>1319</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1056,7 +1071,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-03-27 19:14:46</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1064,6 +1079,7 @@
           <t>https://media.rawg.io/media/games/5eb/5eb49eb2fa0738fdb5bacea557b1bc57.jpg</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1085,7 +1101,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>1956</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1112,7 +1128,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-03-27 19:15:02</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1120,6 +1136,7 @@
           <t>https://media.rawg.io/media/games/1f4/1f47a270b8f241e4676b14d39ec620f7.jpg</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1141,7 +1158,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>2967</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1168,7 +1185,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-03-27 19:15:51</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1176,6 +1193,7 @@
           <t>https://media.rawg.io/media/games/b4e/b4e4c73d5aa4ec66bbf75375c4847a2b.jpg</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1197,7 +1215,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>762</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1223,7 +1241,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-03-27 19:20:07</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1231,6 +1249,7 @@
           <t>https://media.rawg.io/media/games/5be/5bec14622f6faf804a592176577c1347.jpg</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1252,7 +1271,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>1821</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1279,12 +1298,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-03-27 19:20:21</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>https://media.rawg.io/media/games/ffe/ffed87105b14f5beff72ff44a7793fd5.jpg</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/391540/Undertale/</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1332,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>1618</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1335,7 +1359,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-03-27 19:20:37</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1343,6 +1367,7 @@
           <t>https://media.rawg.io/media/games/b6b/b6b20bfc4b34e312dbc8aac53c95a348.jpg</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1360,7 +1385,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>1095</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1387,7 +1412,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-03-27 19:20:54</t>
+          <t>March 27th, 2025</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1395,6 +1420,7 @@
           <t>https://media.rawg.io/media/games/35b/35b47c4d85cd6e08f3e2ca43ea5ce7bb.jpg</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/game_wiki.xlsx
+++ b/data/game_wiki.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,16 @@
           <t>Steam URL</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Metacritic</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Store Links</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -542,6 +552,8 @@
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -594,6 +606,8 @@
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -646,6 +660,8 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -699,6 +715,8 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -751,6 +769,8 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -808,6 +828,8 @@
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -863,6 +885,8 @@
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -920,6 +944,8 @@
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -976,6 +1002,8 @@
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1028,6 +1056,8 @@
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1080,6 +1110,8 @@
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1137,6 +1169,8 @@
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1194,6 +1228,8 @@
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1250,6 +1286,8 @@
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1311,6 +1349,8 @@
           <t>https://store.steampowered.com/app/391540/Undertale/</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1368,6 +1408,8 @@
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1421,6 +1463,1951 @@
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1450</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INSIDE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Martin Stig Andersen, Thomas Krog, Jeppe Carlsen, Dino Christian Patti, Mads Wibroe, Arnt Jensen, Forest Swartout Large, Mikkel Svendsen, Søren T. Madsen, Mikkel Gjøl</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2016-06-28</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2517</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;INSIDE is a captivating platform adventure game developed by Playdead, known for its predecessor Limbo. Released on June 28, 2016, the game immerses players in a dystopian world as they control a young boy navigating eerie environments and solving puzzles. Throughout the game, the boy is relentlessly pursued by ominous antagonists, adding a sense of tension and urgency to the gameplay.&lt;/p&gt;&lt;p&gt;The gameplay in INSIDE is divided into levels corresponding to different locations such as a forest, farm, and a mysterious laboratory conducting unsettling experiments. Players guide the boy through various challenges, utilizing his abilities like controlling bodies with a special helmet and interacting with other characters like a siren-like creature who aids him with underwater gear.&lt;/p&gt;&lt;p&gt;With a dark and atmospheric setting, INSIDE offers players a narrative-driven experience with multiple endings based on players' actions and the discovery of hidden orbs. The game's blend of stealth, puzzle-solving, and platforming elements creates a compelling and immersive gameplay experience.&lt;/p&gt;&lt;p&gt;Receiving critical acclaim, INSIDE has been praised for its captivating storytelling, haunting visuals, and innovative gameplay mechanics. Its eerie ambiance, thought-provoking themes, and intricate level design have made it a standout title in the indie gaming scene, contributing to its lasting cultural impact.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/inside" target="_blank" style="color: #9370DB;"&gt;Metacritic. (2016). INSIDE.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.ign.com/articles/2016/06/29/inside-review" target="_blank" style="color: #9370DB;"&gt;IGN. (2016). Inside Review.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.polygon.com/2016/6/29/12057200/inside-review-xbox-one-pc-playdead" target="_blank" style="color: #9370DB;"&gt;Polygon. (2016). Inside Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.39
+Average Playtime: 4 hours
+ESRB Rating: Teen
+Reviews Count: 2517
+Platforms: Nintendo Switch, PC, iOS, macOS, Xbox One, PlayStation 4</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/d5a/d5a24f9f71315427fa6e966fdd98dfa6.jpg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>87</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2819</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Firewatch</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sean Vanaman, Chris Remo, Jake Rodkin, Nels Anderson, Ben Burbank, William W. Armstrong, William Armstrong, Gabe McGill, Patrick Ewing, Paolo Surricchio</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2016-02-08</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2444</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Firewatch is a captivating adventure game developed by Sean Vanaman, Chris Remo, Jake Rodkin, Nels Anderson, and others, and published by Panic and Campo Santo. Released on February 8, 2016, for various platforms including PC, PlayStation 4, and Xbox One, the game immerses players in the role of fire lookout Henry, stationed in the Shoshone National Forest of Wyoming in 1989. The narrative unfolds as Henry encounters mysterious occurrences in the forest, leading to an exploration of the environment and investigation of its secrets.&lt;/p&gt;&lt;p&gt;Gameplay in Firewatch involves dialogues with Henry's supervisor Delilah, where player choices impact the relationship between the characters. As players delve deeper into the story, they uncover not only the mysteries of the forest but also Henry's personal struggles. The game's nonlinear progression allows for varied experiences based on player decisions, influencing access to different parts of the forest.&lt;/p&gt;&lt;p&gt;With its atmospheric setting, great soundtrack, and rich storytelling, Firewatch received critical acclaim for its unique blend of mystery, exploration, and emotional depth. The game's visual style beautifully captures the wilderness of Shoshone National Forest, enhancing the immersive experience for players.&lt;/p&gt;&lt;p&gt;Firewatch's impact on gaming culture is notable for its innovative narrative approach and the way it conveys emotional connections through gameplay. The game's success has cemented its status as a standout indie title, praised for its storytelling, character development, and environmental design.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.firewatchgame.com/" target="_blank" style="color: #9370DB;"&gt;Firewatch Official Website&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/firewatch" target="_blank" style="color: #9370DB;"&gt;Metacritic - Firewatch&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.polygon.com/reviews/2016/2/8/10932762/firewatch-review-pc-ps4" target="_blank" style="color: #9370DB;"&gt;Polygon - Firewatch Review&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.ign.com/articles/2016/02/08/firewatch-review" target="_blank" style="color: #9370DB;"&gt;IGN - Firewatch Review&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.3
+Average Playtime: 5 hours
+ESRB Rating: Mature
+Reviews Count: 2444
+Platforms: macOS, Linux, Nintendo Switch, PlayStation 4, Xbox One, PC</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/0be/0bea0a08a4d954337305391b778a7f37.jpg</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>81</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2093</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No Man's Sky</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sean Murray, Paul Weir, Grant Duncan, David Ream, Suzy Wallace, Ryan Doyle, Levi Naess, Will Braham, Gareth Bourn, 65daysofstatic</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2016-08-09</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1547</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;No Man's Sky is a space action-adventure survival game developed by Hello Games. Inspired by science fiction literature and demoscene, the game's standout feature is procedural generation, creating a vast universe where each planet is unique and waiting to be explored. Players engage in space travel, resource gathering, ship maintenance, and bounty missions as they aim to reach the galaxy's center. Initially marketed as multiplayer, the game's vast scale made chance encounters rare until a significant update in 2018 introduced full multiplayer functionality.&lt;/p&gt;&lt;p&gt;The gameplay of No Man's Sky revolves around immersive exploration, encountering diverse alien lifeforms, engaging in space battles, and upgrading equipment. The ultimate goal is to navigate the cosmos and uncover the mysteries of the universe. With its release in 2016 on multiple platforms, including PC and consoles, the game garnered attention for its ambitious scope and innovative procedural generation technology.&lt;/p&gt;&lt;p&gt;Reception of No Man's Sky was initially mixed due to launch issues, but subsequent updates improved gameplay mechanics and added features, enhancing the overall player experience. Over time, the game has developed a dedicated community and received praise for its unique approach to world-building and exploration. No Man's Sky has left a notable cultural impact by demonstrating the potential of procedural generation in gaming and evolving into a compelling multiplayer experience.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.polygon.com/reviews/2016/8/8/12390080/no-mans-sky-review-ps4-pc-hello-games" target="_blank" style="color: #9370DB;"&gt;Polygon. (2016). No Man's Sky Review.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.gamespot.com/reviews/no-mans-sky-beyond-review/1900-6417255/" target="_blank" style="color: #9370DB;"&gt;Gamespot. (2019). No Man's Sky Beyond Review.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.ign.com/articles/2018/07/27/no-mans-sky-next-review" target="_blank" style="color: #9370DB;"&gt;IGN. (2018). No Man's Sky NEXT Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.7
+Average Playtime: 15 hours
+ESRB Rating: Teen
+Reviews Count: 1547
+Platforms: Nintendo Switch, Xbox One, PC, PlayStation 4, PlayStation 5</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/174/1743b3dd185bda4a7be349347d4064df.jpg</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>75</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>262382</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Disco Elysium</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2019-10-14</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1249</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Disco Elysium is a groundbreaking isometric RPG that combines elements of a hardboiled cop show with a unique urban fantasy setting. Developed by ZA/UM and released on October 14, 2019, the game invites players to solve a massive, open-ended case as a disgraced lieutenant detective in the corrupt town of Revachol West. Players can choose to kick in doors, interrogate suspects, or simply explore the gorgeously rendered city while unraveling its mysteries.&lt;/p&gt;&lt;p&gt;The game features an original skill system that integrates players' innermost feelings, doubts, and memories into every conversation, allowing them to shape the story through their choices. Whether players opt to level up their rational faculties, sharpen their wits, or give in to their basest instincts, Disco Elysium offers a deeply immersive role-playing experience where one's decisions define the kind of cop they become.&lt;/p&gt;&lt;p&gt;Disco Elysium has garnered critical acclaim for its innovative gameplay mechanics, compelling narrative, and intricate world-building. With a Metacritic score of 4.39, the game has been praised for its rich storytelling, memorable characters, and philosophical depth. Its success has solidified its place as a standout title in the adventure, RPG, and indie game genres.&lt;/p&gt;&lt;p&gt;The cultural impact of Disco Elysium extends beyond its genre-blending gameplay, as it has sparked discussions about player agency, morality, and the boundaries of interactive storytelling in video games. The game's ability to immerse players in a morally ambiguous world where decisions carry real consequences has resonated with audiences and critics alike, cementing its status as a modern classic in the gaming industry.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/disco-elysium" target="_blank" style="color: #9370DB;"&gt;Metacritic. (n.d.). Disco Elysium.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://zaumstudio.com/" target="_blank" style="color: #9370DB;"&gt;ZA/UM Official Website.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.39
+Average Playtime: 6 hours
+ESRB Rating: Mature
+Reviews Count: 1249
+Platforms: PC, macOS, Xbox One, Nintendo Switch, PlayStation 4, Xbox Series S/X, PlayStation 5</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/840/8408ad3811289a6a5830cae60fb0b62a.jpg</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>91</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Transistor</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Christopher Jurney, Amir Rao, Darren Korb, Greg Kasavin, Gavin Simon, Jen Zee, Andrew Wang</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2014-05-20</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1457</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;strong&gt;Transistor&lt;/strong&gt; is a captivating cyberpunk action RPG developed by Supergiant Games, released on May 20, 2014. Set in the futuristic city of Cloudbank, players follow the protagonist Red as she wields the Transistor, a mysterious sword containing the consciousness of a former owner. The game features a blend of real-time and strategic combat, allowing players to freeze time with Red's ability called Turn, strategizing their moves by planning actions. Players can customize the Transistor with various Function combinations acquired from defeated enemies, each offering unique passive effects.&lt;/p&gt;&lt;p&gt;The visually stunning world of Transistor, presented in vibrant hand-painted artwork in 1080p resolution, is complemented by a dynamic original soundtrack by Darren Korb. The narrative unfolds through reactive voiceovers, creating a deep and atmospheric story that immerses players in the game's rich lore. The 'Recursion' option adds procedural battles after completing the main story, enhancing replayability.&lt;/p&gt;&lt;p&gt;Receiving critical acclaim, Transistor has been praised for its innovative gameplay, captivating art style, and engaging story. It has garnered a rating of 4.17 and has been recognized for its great soundtrack, atmospheric world, and strong narrative. The game's unique blend of action, strategy, and cyberpunk aesthetics has contributed to its lasting cultural impact in the gaming community.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/transistor" target="_blank" style="color: #9370DB;"&gt;Metacritic. (2014). Transistor PC Reviews.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.gamespot.com/reviews/transistor-review/1900-6415741/" target="_blank" style="color: #9370DB;"&gt;Gamespot. (2014). Transistor Review.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.ign.com/articles/2014/05/20/transistor-review/" target="_blank" style="color: #9370DB;"&gt;IGN. (2014). Transistor Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.17
+Average Playtime: 4 hours
+ESRB Rating: Teen
+Reviews Count: 1457
+Platforms: Nintendo Switch, PlayStation 4, PC, iOS, macOS, Linux</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/d1f/d1f872a48286b6b751670817d5c1e1be.jpg</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>83</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2792</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Layers of Fear</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Arkadiusz Reikowski, Paweł Niezabitowski, Andrzej Mądrzak, Mateusz Lenart, Eryk Dykiel, Michał Król</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2016-02-16</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1111</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;Layers of Fear&lt;/i&gt; is a psychological horror game developed by a team of creators including Arkadiusz Reikowski, Paweł Niezabitowski, and others, and published by Aspyr and Bloober Team. Released on February 16, 2016, the game offers a unique gameplay experience centered around exploration and puzzles. Players assume the role of a disturbed painter navigating through a constantly shifting house filled with jump scares, aiming to complete a mysterious painting. The narrative unfolds across six chapters, culminating in one of three possible endings based on the player's decisions throughout the game.&lt;/p&gt;&lt;p&gt;The game's immersive atmosphere, gripping storyline, and multiple endings garnered mixed reviews, with a rating of 3.53. Its DLC further expands on the story, delving into the painter's daughter's memories and offering additional endings. &lt;i&gt;Layers of Fear&lt;/i&gt; has been praised for its eerie ambiance, storytelling, and sound design, earning recognition for its contribution to the horror genre in the gaming industry.&lt;/p&gt;&lt;p&gt;With gameplay elements like exploration, mystery, and psychological horror, &lt;i&gt;Layers of Fear&lt;/i&gt; has made a notable impact on the gaming community. Its surreal and Lovecraftian themes, combined with immersive storytelling, have solidified its status as a memorable indie adventure. The game's availability on various platforms and its inclusion of features like multiple endings and atmospheric gameplay have contributed to its appeal among horror enthusiasts.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://layersoffear.com" target="_blank" style="color: #9370DB;"&gt;Official Website&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2" style="color: #9370DB;"&gt;Bloober Team. (2016). Layers of Fear.&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.53
+Average Playtime: 3 hours
+ESRB Rating: Mature
+Reviews Count: 1111
+Platforms: PlayStation 4, Linux, macOS, PC, iOS, Xbox One</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/6a2/6a2e48933245e2cd3c92248c75c925e1.jpg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>72</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3168</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SOMA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mikko Tarmia, Thomas Grip, Jens Nilsson, Mikael Hedberg, Marc Nicander, Marcus Johansson, Rasmus Gunnarsson, Patrik Dekhla, David Satzinger, Aaron Clifford</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2015-09-21</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;SOMA is a sci-fi survival horror game developed by a team at Frictional Games, released on September 21, 2015. The game immerses players in a chilling underwater facility filled with mutants, where they take on the role of Simon Jarrett, who navigates a world of mystery and horror. Gameplay in SOMA focuses on exploration, puzzle-solving, and stealth, with an absence of combat mechanics, emphasizing the eerie atmosphere and psychological tension over traditional jump scares.&lt;/p&gt;&lt;p&gt;The narrative unfolds as players uncover the secrets of the facility alongside scientist Catherine Chun, delving into themes of consciousness, identity, and morality. Moral choices made throughout the game subtly shape the player's experience, affecting their perspective on the unfolding events. The haunting setting, coupled with thought-provoking storytelling, contributes to the game's unique appeal and immersive gameplay.&lt;/p&gt;&lt;p&gt;SOMA garnered praise for its atmospheric design, compelling narrative, and philosophical depth, earning a rating of 4.16. It has been lauded for its innovative approach to horror, focusing on psychological unease rather than overt violence. The game's emphasis on player agency in shaping the story and the evocative sound design further enhance the overall experience.&lt;/p&gt;&lt;p&gt;With its fusion of sci-fi elements, horror themes, and existential storytelling, SOMA has left a lasting impact on the gaming community. It challenges players to confront profound questions about humanity and consciousness within a gripping and unsettling gameplay experience.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/soma" target="_blank" style="color: #9370DB;"&gt;Metacritic. SOMA Review.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.rockpapershotgun.com/soma-review" target="_blank" style="color: #9370DB;"&gt;Rock Paper Shotgun. SOMA: The RPS Verdict.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.polygon.com/2015/9/22/9373291/soma-frictional-games-review-pc-ps4" target="_blank" style="color: #9370DB;"&gt;Polygon. SOMA Review: A Terrifying Dive into the Abyss.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.16
+Average Playtime: 6 hours
+ESRB Rating: Mature
+Reviews Count: 1414
+Platforms: PlayStation 4, Xbox One, PC, macOS, Linux</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/149/149bbed9d90dc09328ba79bbacfda3c8.jpg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>84</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>This War of Mine</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Piotr Musiał, Grzegorz Mazur, Wojtek Setlak, Michał Drozdowski, Rafał Włosek, Bartek Rydel, Przemysław Marszał, Jakub Piotrowski, Maciej Skóra, Aleksander Kauch</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2014-11-14</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1223</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;This War of Mine&lt;/i&gt; is a thought-provoking survival video game developed by a team of talented individuals at 11 bit studios. Released on November 14, 2014, the game offers a unique perspective on war by putting players in control of a group of civilians struggling to survive in a war-torn city. Players must scavenge for resources, make tough decisions, and deal with the harsh realities of conflict.&lt;/p&gt;&lt;p&gt;The gameplay mechanics of &lt;i&gt;This War of Mine&lt;/i&gt; revolve around resource management, crafting, and making moral choices. Players must navigate through the day and night cycles, each presenting different challenges and opportunities. The game's random events and varied character behaviors ensure a dynamic and immersive experience with each playthrough.&lt;/p&gt;&lt;p&gt;Reception for &lt;i&gt;This War of Mine&lt;/i&gt; has been overwhelmingly positive, praised for its emotional impact, challenging gameplay, and moral dilemmas. The game's atmospheric storytelling, coupled with its poignant art style and sound design, has resonated with players and critics alike.&lt;/p&gt;&lt;p&gt;&lt;i&gt;This War of Mine&lt;/i&gt; has made a significant cultural impact by shedding light on the civilian experience during wartime. Its focus on human survival, empathy, and the consequences of one's actions has sparked meaningful discussions about the effects of war on individuals and communities.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>&lt;ol class='ps-4'&gt;&lt;li class='mb-2'&gt;&lt;a href='https://store.steampowered.com/app/282070/This_War_of_Mine/' target='_blank' style='color: #9370DB;'&gt;Steam - This War of Mine&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.metacritic.com/game/pc/this-war-of-mine' target='_blank' style='color: #9370DB;'&gt;Metacritic - This War of Mine&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.ign.com/articles/2014/11/18/this-war-of-mine-review' target='_blank' style='color: #9370DB;'&gt;IGN - This War of Mine Review&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.07
+Average Playtime: 4 hours
+ESRB Rating: Mature
+Reviews Count: 1223
+Platforms: Android, PS Vita, Nintendo Switch, Linux, macOS, PC, iOS</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/283/283e7e600366b0da7021883d27159b27.jpg</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>83</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11726</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dead Cells</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2018-08-07</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Dead Cells is a roguelike adventure title developed by Motion Twin. The game features procedurally generated environments typical of roguelikes, while incorporating exploration elements commonly found in metroidvanias. Players assume the role of the Prisoner on a remote island, navigating dungeons, battling creatures, collecting loot, and acquiring power-ups. Upon death, players lose all loot, encouraging a learning experience as enemy placements are randomized, necessitating adaptation and skill improvement.&lt;/p&gt;&lt;p&gt;Dead Cells' gameplay draws inspiration from The Binding of Isaac, focusing on challenging combat and strategic decision-making. The game's unique approach to death as a learning tool sets it apart from traditional roguelike experiences. With a diverse range of genres including action, RPG, and platformer, Dead Cells offers a blend of intense combat, exploration, and progression.&lt;/p&gt;&lt;p&gt;Since its release in August 2018 on multiple platforms, Dead Cells has garnered critical acclaim for its engaging gameplay, pixel graphics, and atmospheric soundtrack. The game's emphasis on skill development and adaptive strategy has resonated with players, contributing to its popularity within the indie gaming community. Dead Cells' fusion of roguelike and metroidvania elements has been praised for its seamless integration and challenging yet rewarding gameplay.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://dead-cells.com/" target="_blank" style="color: #9370DB;"&gt;Dead Cells Official Website&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/switch/dead-cells" target="_blank" style="color: #9370DB;"&gt;Metacritic - Dead Cells&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.24
+Average Playtime: 10 hours
+ESRB Rating: Teen
+Reviews Count: 1691
+Platforms: Xbox One, Nintendo Switch, PlayStation 4, macOS, Linux, iOS, PC</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/f90/f90ee1a4239247a822771c40488e68c5.jpg</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>88</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1358</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Papers, Please</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Lucas Pope</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2013-08-08</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1719</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;Papers, Please&lt;/i&gt; is a simulation video game developed by Lucas Pope, released on August 8, 2013. The game tasks players with the role of an immigration officer in a fictional dystopian country, inspecting documents to decide who can enter and who is turned away. Set in a paranoid dictatorship, players must navigate through ever-changing rules and face deception from scammers. The game combines monotonous yet crucial tasks with humor, puzzles, unexpected twists, and even moments of shooting, reflecting a world of absurd rules and constant fear.&lt;/p&gt;&lt;p&gt;Players utilize various tools and resources to prevent mistakes and maintain the security of the nation, all while dealing with the pressure of making split-second decisions. The pixel art style and evocative soundtrack contribute to the game's eerie atmosphere, capturing the essence of a society filled with mutual distrust and control.&lt;/p&gt;&lt;p&gt;&lt;i&gt;Papers, Please&lt;/i&gt; received critical acclaim for its unique gameplay mechanics, compelling narrative, and thought-provoking themes. It was praised for its immersive storytelling, challenging gameplay, and multiple endings that are influenced by the player's choices. The game's portrayal of a bureaucratic and oppressive regime struck a chord with players and critics alike, leading to its recognition as a standout indie title with a rating of 4.38.&lt;/p&gt;&lt;p&gt;The game's impact extends beyond entertainment, sparking discussions on political systems, immigration policies, and personal ethics. Its success highlighted the potential of indie games to explore complex themes and engage players in meaningful ways, solidifying its status as a significant addition to the gaming landscape.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.rockpapershotgun.com/2013/08/15/wot-i-think-papers-please/" target="_blank" style="color: #9370DB;"&gt;Rossignol, J. (2013). Wot I Think: Papers, Please.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.pcgamer.com/papers-please-review/" target="_blank" style="color: #9370DB;"&gt;Lahti, E. (2013). Papers, Please Review.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.ign.com/articles/2013/08/13/papers-please-review" target="_blank" style="color: #9370DB;"&gt;Petron, L. (2013). Papers, Please Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.38
+Average Playtime: 4 hours
+ESRB Rating: Mature
+Reviews Count: 1719
+Platforms: Linux, macOS, PC, iOS, Android, PS Vita</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/6d3/6d33014a4ed48a19c30a77ead5a0f62e.jpg</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>85</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3740</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FEZ</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rich Vreeland, Renaud Bédard, Phil Fish, Marie-Christine Bourdua, Thomas Scott</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2012-04-13</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1162</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;FEZ is a unique blend of 2D and 3D gameplay, where players navigate a 2D platformer world while having the ability to rotate the environment in 3D space. Developed by a team including Rich Vreeland, Renaud Bédard, Phil Fish, Marie-Christine Bourdua, and Thomas Scott, the game was released on April 13, 2012, across various platforms such as Nintendo Switch, PlayStation, Xbox, and PC.&lt;/p&gt;&lt;p&gt;In FEZ, players control Gomez, the protagonist, on a quest to restore order in his universe by collecting cube fragments. The game's standout feature is the manipulation of perspective through rotational puzzles, granting access to new areas and challenges. With a focus on exploration and puzzle-solving rather than combat, FEZ offers a relaxing and immersive experience, encouraging players to savor the intricate world design.&lt;/p&gt;&lt;p&gt;The game received critical acclaim for its innovative gameplay mechanics, atmospheric pixel graphics, and enchanting soundtrack, earning a rating of 4.0. Its emphasis on exploration, mystery, and puzzle-platforming elements resonated with players, cementing its status as a standout indie title.&lt;/p&gt;&lt;p&gt;FEZ's cultural impact is evident in its influence on game design, inspiring developers to experiment with perspective-shifting mechanics and unconventional storytelling. The game's legacy lies in its ability to captivate players with its serene gameplay and artistic charm, making it a beloved addition to the indie gaming scene.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/fez" target="_blank" style="color: #9370DB;"&gt;Metacritic. (2012). FEZ - PC.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://store.steampowered.com/app/224760/FEZ/" target="_blank" style="color: #9370DB;"&gt;Steam. (2013). FEZ on Steam.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.polygon.com/reviews/2012/4/13/2944032/fez-review-xbla" target="_blank" style="color: #9370DB;"&gt;Polygon. (2012). FEZ Review: Perspective Is Everything.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.0
+Average Playtime: 2 hours
+ESRB Rating: Everyone
+Reviews Count: 1162
+Platforms: Nintendo Switch, PlayStation 3, Xbox 360, PlayStation 4, PS Vita, iOS, PC, macOS, Linux</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/4cb/4cb855e8ef1578415a928e53c9f51867.png</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>91</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10419</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Subnautica</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tom Jubert, Max McGuire, Charlie Cleveland, Simon Chylinski, Steve An, Cory Strader, Brian Cummings, Scott MacDonald</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2018-01-23</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1430</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Subnautica is a captivating first-person adventure game set in the deep sea, where players embody Ryley Robinson, a space traveler stranded on an ocean-covered planet in the 22nd century. Developed by a team including Tom Jubert, Max McGuire, and Charlie Cleveland, the game offers a unique survival experience with intricate gameplay mechanics. Players must manage Robinson's basic needs like food and water, explore the ocean depths, gather resources, craft tools, and uncover the mysteries surrounding the crashed starship.&lt;/p&gt;&lt;p&gt;The game's stunning portrayal of the underwater world, complete with diverse marine life, enhances the immersive gameplay. Subnautica's emphasis on exploration, base building, and survival crafting, coupled with a well-crafted narrative, sets it apart in the gaming landscape. Its random generation of the environment ensures each playthrough is fresh and engaging.&lt;/p&gt;&lt;p&gt;Upon its release in January 2018 for multiple platforms, including PC, consoles, and VR, Subnautica garnered critical acclaim for its visuals, gameplay depth, and storytelling. The game's unique blend of adventure, horror, and sci-fi elements resonated with players, earning it a strong rating. Subnautica's success led to the development of an expansion, 'Subnautica: Below Zero,' further expanding the game's universe.&lt;/p&gt;&lt;p&gt;With its innovative gameplay, rich narrative, and immersive underwater setting, Subnautica has left a lasting impact on the gaming community, attracting a dedicated fan base and influencing the survival genre. The game continues to be celebrated for its creativity, exploration opportunities, and atmospheric experience.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/subnautica" target="_blank" style="color: #9370DB;"&gt;Metacritic. Subnautica Reviews.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://store.steampowered.com/app/264710/Subnautica/" target="_blank" style="color: #9370DB;"&gt;Steam. Subnautica.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://unknownworlds.com/subnautica/" target="_blank" style="color: #9370DB;"&gt;Unknown Worlds Entertainment. Subnautica Official Website.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.25
+Average Playtime: 10 hours
+ESRB Rating: Everyone 10+
+Reviews Count: 1430
+Platforms: PlayStation 4, Xbox Series S/X, PC, macOS, Nintendo Switch, Xbox One, PlayStation 5</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/739/73990e3ec9f43a9e8ecafe207fa4f368.jpg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>83</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4954</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Castle Crashers</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Matthew Harwood, Dan Paladin, Tom Fulp</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2008-08-27</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1208</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Castle Crashers is a 2D beat-em-up game with role-playing elements developed by Behemoth and released in 2008 on Xbox Live Arcade, later expanding to other platforms. Players assume the role of knights on a quest to rescue princesses and a mystical gem from an evil wizard. The gameplay involves defeating waves of enemies using weapons, magical abilities, and RPG mechanics like leveling up to enhance stats and acquire new moves. Notably, the game emphasizes cooperative multiplayer for up to 4 players locally or online.&lt;/p&gt;&lt;p&gt;With its hand-drawn visual style, Castle Crashers continues Behemoth's signature design seen in previous titles like Alien Hominid and later in BattleBlock Theater. The game's humorous and fantastical setting, along with its engaging gameplay, garnered praise from players and critics alike. Castle Crashers' success led to a remastered version in 2015, enhancing the experience for Xbox One players while maintaining its charm and appeal.&lt;/p&gt;&lt;p&gt;Reception for Castle Crashers was generally positive, with reviewers praising its art style, humor, and multiplayer experience. The game's blend of action, RPG elements, and cooperative play resonated well with audiences, contributing to its lasting popularity. Castle Crashers' impact on the indie gaming scene showcased the potential for smaller studios to create successful, high-quality titles with unique gameplay and distinctive visuals.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/xbox-360/castle-crashers" target="_blank" style="color: #9370DB;"&gt;Metacritic. Castle Crashers Reviews.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.ign.com/articles/2008/08/27/castle-crashers-review" target="_blank" style="color: #9370DB;"&gt;IGN. Castle Crashers Review.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.polygon.com/2015/9/9/9297055/castle-crashers-remastered-xbox-one-review-the-behemoth" target="_blank" style="color: #9370DB;"&gt;Polygon. Castle Crashers Remastered Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.88
+Average Playtime: 4 hours
+ESRB Rating: Teen
+Reviews Count: 1208
+Platforms: PlayStation 3, Xbox 360, Nintendo Switch, PC, macOS</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/d1a/d1a1202a378607b6c635c8f18ace95dd.jpg</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>84</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1244</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Darkest Dungeon</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Stuart Chatwood, Tyler Sigman, Chris Bourassa, Pierre Tardif, Keir Miron, Kelvin McDowell, Brooks Gordon</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2016-01-18</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1330</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Darkest Dungeon is a renowned roguelike RPG developed by Red Hook Studios, released on January 18, 2016, across various platforms. Drawing inspiration from the works of H.P. Lovecraft, the game delves into themes of fear and psychological trauma. Players inherit a manor overrun by monsters, leading a group of adventurers through procedurally generated dungeons to collect treasures while managing their heroes' physical and mental well-being.&lt;/p&gt;&lt;p&gt;The gameplay focuses on maintaining the mental health of characters, which deteriorates as they face challenges in the dungeons. Heroes can develop unique traits that impact their behavior, adding depth to the strategic decision-making process. With elements of turn-based combat and permadeath, Darkest Dungeon offers a challenging experience that tests players' resource management and tactical skills.&lt;/p&gt;&lt;p&gt;Reception for Darkest Dungeon has been overwhelmingly positive, praised for its innovative take on the roguelike genre, engaging narrative, and distinctive art style. The game's dark and atmospheric setting, coupled with its punishing gameplay mechanics, has garnered a dedicated fan base and critical acclaim.&lt;/p&gt;&lt;p&gt;With its blend of challenging gameplay, psychological depth, and Lovecraftian themes, Darkest Dungeon has left a lasting cultural impact on the indie gaming scene, inspiring other developers and resonating with players who appreciate its unique approach to storytelling and gameplay.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>&lt;ol class='ps-4'&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.metacritic.com/game/pc/darkest-dungeon' target='_blank' style='color: #9370DB;'&gt;Metacritic. (2016). Darkest Dungeon for PC Reviews.&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.pcgamer.com/darkest-dungeon-review/' target='_blank' style='color: #9370DB;'&gt;PC Gamer. (2016). Darkest Dungeon Review.&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.ign.com/articles/2016/01/25/darkest-dungeon-review' target='_blank' style='color: #9370DB;'&gt;IGN. (2016). Darkest Dungeon Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.17
+Average Playtime: 8 hours
+ESRB Rating: Teen
+Reviews Count: 1330
+Platforms: PC, macOS, Nintendo Switch, Linux, PS Vita, Xbox One, PlayStation 4</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/fd9/fd92f105dcd6491bc5d61135033d1f19.jpg</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>84</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9475</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Don't Starve</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Jason Garner, Vince de Vera</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2013-04-22</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1118</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;"Don't Starve" is an indie adventure survival game developed by Jason Garner and Vince de Vera and published by Klei Entertainment. Released on April 22, 2013, the game immerses players in a procedurally generated open-world environment with a unique cartoon art style. Players take on the role of the scientist Wilson, who finds himself trapped in a dark and dangerous world. The primary objectives include managing Wilson's health, hunger, and sanity, all while navigating the challenges of the hostile environment filled with supernatural enemies.&lt;/p&gt;&lt;p&gt;The gameplay of "Don't Starve" revolves around exploration, resource gathering, crafting, and survival. Players must adapt to the day/night cycle, where days are spent preparing for the dangers of the night. From tiny frogs to carnivorous birds and tentacles, a variety of enemies pose threats to Wilson's survival. Death can occur due to starvation, insanity, or monster attacks, adding a sense of urgency and strategy to the gameplay.&lt;/p&gt;&lt;p&gt;The game received positive reviews for its challenging gameplay, unique art style, and immersive atmosphere. Critics praised its replay value, crafting mechanics, and the tension created by the constant need for survival. "Don't Starve" has garnered a dedicated fan base and has influenced the survival genre with its emphasis on resource management and unpredictable world generation.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/dont-starve" target="_blank" style="color: #9370DB;"&gt;Metacritic. (n.d.). Don't Starve. &lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://store.steampowered.com/app/219740/Dont_Starve/" target="_blank" style="color: #9370DB;"&gt;Steam. (n.d.). Don't Starve on Steam. &lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.ign.com/articles/2013/04/25/dont-starve-review" target="_blank" style="color: #9370DB;"&gt;IGN. (2013). Don't Starve Review. &lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.85
+Average Playtime: 4 hours
+ESRB Rating: Teen
+Reviews Count: 1118
+Platforms: PlayStation 3, PS Vita, Linux, Wii U, Xbox One, PC, macOS, PlayStation 4</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/f3e/f3eec35c6218dcfd93a537751e6bfa61.jpg</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>79</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17875</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Guacamelee! Super Turbo Championship Edition</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2014-07-01</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>821</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;Guacamelee! Super Turbo Championship Edition&lt;/i&gt; is an action-packed indie platformer developed and published by DrinkBox Studios. Originally released on July 1, 2014, the game combines vibrant Mexican aesthetics and folklore with engaging gameplay mechanics. Players assume the role of Juan Aguacate, a farmer turned Luchador, on a quest to rescue El Presidente's daughter from the clutches of the villainous Carlos Calaca, who aims to open the gates to the World of the Dead through a sinister ritual. The game offers a unique blend of Metroidvania exploration and open-world elements, allowing players to navigate the 2D world in any direction.&lt;/p&gt;&lt;p&gt;In &lt;i&gt;Guacamelee!&lt;/i&gt;, combat draws inspiration from traditional fighting games like Mortal Kombat, delivering responsive controls and a diverse array of Mexican-themed enemies, including Dia de Los Muertos skeletons, armadillos, and cacti. The &lt;i&gt;Super Turbo Championship Edition&lt;/i&gt; introduces new features such as the Intenso mode, health bars for opponents, additional enemies, levels, and a new boss, enhancing the overall gameplay experience.&lt;/p&gt;&lt;p&gt;The game has garnered praise for its colorful visuals, humorous narrative, and challenging gameplay. With its seamless integration of cooperative play, hilarious dialogue, and memorable characters, &lt;i&gt;Guacamelee!&lt;/i&gt; has left a lasting impact on the indie gaming scene, earning a dedicated fan base and critical acclaim.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/playstation-4/guacamelee-super-turbo-championship-edition" target="_blank" style="color: #9370DB;"&gt;Metacritic. (2014). Guacamelee! Super Turbo Championship Edition Reviews.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.polygon.com/2014/7/2/5862455/guacamelee-super-turbo-championship-edition-review-ps4-xbox-one-wii-u-pc" target="_blank" style="color: #9370DB;"&gt;Polygon. (2014). Guacamelee! Super Turbo Championship Edition Review.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.ign.com/articles/2014/07/02/guacamelee-super-turbo-championship-edition-review" target="_blank" style="color: #9370DB;"&gt;IGN. (2014). Guacamelee! Super Turbo Championship Edition - Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.55
+Average Playtime: 3 hours
+ESRB Rating: Everyone 10+
+Reviews Count: 821
+Platforms: PlayStation 4, Xbox 360, Wii U, Nintendo Switch, PC, Xbox One</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/fc8/fc838d98c9b944e6a15176eabf40bee8.jpg</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>86</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7819</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SUPERHOT</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Cezary Skorupka, Karl Flodin, Krzysztof Tracz, Jakub Witczak, Panos Rriska, Tom Kaczmarczyk, Marek Bączyński, Konrad Kaca, Piotr Iwanicki, Marcin Surma</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2016-02-24</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;b&gt;SUPERHOT&lt;/b&gt; is a unique first-person shooter game known for its artistically minimalistic design and innovative time mechanics. Developed by a team of talented individuals including Cezary Skorupka, Piotr Iwanicki, and others, the game was released on February 24, 2016, for various platforms such as PlayStation 4, Nintendo Switch, and PC. At the core of SUPERHOT is its time manipulation feature, where time only moves when the player does, blending elements of shooters and strategy games.&lt;/p&gt;&lt;p&gt;The game's narrative revolves around a 'game within a game' concept, where players find themselves immersed in a mysterious world that challenges them to uncover the truth behind their existence. Players must navigate through levels, eliminating enemies with limited weaponry while being susceptible to a single shot that forces them to restart the level.&lt;/p&gt;&lt;p&gt;Besides the engaging campaign mode, SUPERHOT offers an endless mode and challenging levels to enhance gameplay difficulty. The game received positive reviews for its innovative gameplay mechanics, striking visual style, and immersive experience. With a strong emphasis on player skill and strategic thinking, SUPERHOT has garnered a dedicated fan base and critical acclaim within the gaming community.&lt;/p&gt;&lt;p&gt;Recognized for its unique blend of action, strategy, and time manipulation, SUPERHOT has left a lasting impact on the indie gaming scene. Its distinctive gameplay mechanics and minimalist aesthetics have inspired other developers and contributed to the evolution of the first-person shooter genre.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/superhot" target="_blank" style="color: #9370DB;"&gt;Metacritic. (2016). SUPERHOT - PC.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.polygon.com/2016/2/25/11112324/superhot-review-pc-xbox-one" target="_blank" style="color: #9370DB;"&gt;Kuchera, B. (2016). SUPERHOT review.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.gamespot.com/reviews/superhot-review/1900-6416376/" target="_blank" style="color: #9370DB;"&gt;Mahan, M. (2016). SUPERHOT Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.19
+Average Playtime: 4 hours
+ESRB Rating: Teen
+Reviews Count: 1516
+Platforms: PlayStation 4, Nintendo Switch, macOS, Xbox One, Linux, Web, PC</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/screenshots/ad4/ad445a12ee46543d4d117f3893041ebf.jpg</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>82</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>What Remains of Edith Finch</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ben Esposito, Chris Bell, Ian Dallas, Joshua Sarfaty, Jeff Russo, Alvin Nelson, Michael Fallik, Brandon Martynowicz</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2017-04-23</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;What Remains of Edith Finch&lt;/i&gt; is an adventure indie game developed by a team of creators including Ben Esposito, Chris Bell, and Ian Dallas, among others. Released in April 2017 by Annapurna Interactive, the game invites players to embody Edith Finch as she explores her family's cursed history in a mysterious abandoned mansion. Each deceased relative's story is unravelled through immersive first-person gameplay, offering a blend of exploration, puzzle-solving, and mini-games.&lt;/p&gt;&lt;p&gt;The game's narrative unfolds as Edith delves into the tragic and unusual deaths of her family members, experiencing their lives and untimely demises through a series of poignant vignettes. Players witness a variety of perspectives, from human to animal, creating a rich tapestry of interconnected stories that paint a haunting picture of the Finch family's fate.&lt;/p&gt;&lt;p&gt;&lt;i&gt;What Remains of Edith Finch&lt;/i&gt; has been lauded for its atmospheric storytelling, captivating soundtrack, and unique gameplay mechanics that challenge players to uncover the underlying truths behind the family's history. The game's short yet impactful experience has resonated with many, earning critical acclaim and a devoted following in the indie gaming community.&lt;/p&gt;&lt;p&gt;With its emphasis on narrative depth and emotional resonance, &lt;i&gt;What Remains of Edith Finch&lt;/i&gt; has left a lasting impression on players and critics alike, solidifying its place as a standout title in the genre of interactive storytelling.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>&lt;ol class='ps-4'&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.metacritic.com/game/pc/what-remains-of-edith-finch' target='_blank' style='color: #9370DB;'&gt;Metacritic. (2017). What Remains of Edith Finch.&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://store.steampowered.com/app/501300/What_Remains_of_Edith_Finch/' target='_blank' style='color: #9370DB;'&gt;Steam. (2017). What Remains of Edith Finch.&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.gamespot.com/reviews/what-remains-of-edith-finch-review/1900-6416662/' target='_blank' style='color: #9370DB;'&gt;Gamespot. (2017). What Remains of Edith Finch Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.38
+Average Playtime: 3 hours
+ESRB Rating: Teen
+Reviews Count: 1990
+Platforms: Xbox One, iOS, PC, Nintendo Switch, PlayStation 4</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/34e/34e100b1f648de99f32d477065f04653.jpg</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>89</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3408</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Hotline Miami 2: Wrong Number</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Jonatan Söderström, Dennis Wedin</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2015-03-09</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Hotline Miami 2: Wrong Number is the highly anticipated sequel to the critically acclaimed Hotline Miami. Developed by Jonatan Söderström and Dennis Wedin, and published by Devolver Digital, the game was released on March 9, 2015, across multiple platforms including PC, PlayStation, Nintendo Switch, and mobile devices.&lt;/p&gt;&lt;p&gt;The game continues the intense top-down shooter gameplay of its predecessor, with a new storyline set during a fictionalized Cold War that escalates into a full-blown conflict between the Soviet Union and the USA. Players control a variety of characters, each with their own unique abilities and perspectives on the unfolding events, adding depth and complexity to the narrative.&lt;/p&gt;&lt;p&gt;Hotline Miami 2 introduces new gameplay elements such as multiple difficulty levels, additional masks with unique abilities, and a level editor for players to create and share their own challenging levels. The game's fast-paced action, retro pixel graphics, and synthwave soundtrack contribute to its intense and immersive atmosphere.&lt;/p&gt;&lt;p&gt;Receiving a rating of 4.28, Hotline Miami 2: Wrong Number was well-received by both critics and players for its challenging gameplay, compelling story, and stylish presentation. Its impact on the indie gaming scene and the top-down shooter genre is significant, influencing other games with its unique blend of violent action, strategic gameplay, and retro aesthetics.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/hotline-miami-2-wrong-number" target="_blank" style="color: #9370DB;"&gt;Metacritic. (2015). Hotline Miami 2: Wrong Number Review.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.ign.com/articles/2015/03/10/hotline-miami-2-wrong-number-review" target="_blank" style="color: #9370DB;"&gt;IGN. (2015). Hotline Miami 2: Wrong Number Review.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://store.steampowered.com/app/274170/Hotline_Miami_2_Wrong_Number/" target="_blank" style="color: #9370DB;"&gt;Steam Store. (n.d.). Hotline Miami 2: Wrong Number Information.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.28
+Average Playtime: 7 hours
+ESRB Rating: Mature
+Reviews Count: 1312
+Platforms: Android, PS Vita, PlayStation 4, PlayStation 3, Linux, macOS, PC, Nintendo Switch, iOS</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/003/0031c0067559d41df19cf98ad87e02aa.jpg</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>72</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>624</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FTL: Faster Than Light</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tom Jubert, Ben Prunty, Justin Ma, Matthew Davis</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2012-09-14</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>951</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;FTL: Faster Than Light is a renowned roguelike strategy game developed by Subset Games and released on September 14, 2012. Set against the backdrop of a space civil war within the Galactic Federation, players command a spaceship tasked with delivering crucial data to Federation headquarters to help overcome the rebel forces. The game unfolds across eight procedurally generated space sectors, where players navigate encounters with diverse ships, NPCs, and random events. Notably, players do not directly control the spaceship but manage the ship's crew, recruiting members of various races, each with unique attributes impacting ship systems, movement, and combat proficiency.&lt;/p&gt;&lt;p&gt;FTL is esteemed for its challenging gameplay, with ship destruction resulting in the deletion of save files, adding intensity to decision-making. Its blend of strategy, simulation, and indie elements, coupled with single-player, atmospheric, and pixel graphics, has garnered widespread acclaim. The game's captivating soundtrack, sci-fi setting, and high replay value contribute to its appeal as a roguelike title with real-time gameplay punctuated by pause mechanics.&lt;/p&gt;&lt;p&gt;Receiving a rating of 4.25, FTL: Faster Than Light has left a lasting impact on the gaming community, praised for its difficulty, immersive experience, and strategic depth. The game's success underscores its cultural significance within the indie gaming sphere, cementing its status as a standout example of the roguelike genre.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>&lt;ol class='ps-4'&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.ftlgame.com/' target='_blank' style='color: #9370DB;'&gt;FTL: Faster Than Light Official Website&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.metacritic.com/game/pc/ftl-faster-than-light' target='_blank' style='color: #9370DB;'&gt;Metacritic Reviews&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://store.steampowered.com/app/212680/FTL_Faster_Than_Light/' target='_blank' style='color: #9370DB;'&gt;Steam Store Page&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.25
+Average Playtime: 6 hours
+ESRB Rating: Everyone 10+
+Reviews Count: 951
+Platforms: PC, Linux, iOS, macOS</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/5f4/5f4780690dbf04900cbac5f05b9305f3.jpg</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>84</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9609</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Euro Truck Simulator 2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2012-10-19</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>892</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;Euro Truck Simulator 2&lt;/i&gt; is a simulation game developed and published by SCS Software, releasing on October 19, 2012. In the game, players assume the role of a truck driver tasked with delivering goods across Europe. Notably, the game's AI drivers mimic real-life behaviors, including yielding to main roads and obeying road rules. Players must manage their driving time, with fatigue mechanics necessitating rest stops to avoid accidents due to drowsiness.&lt;/p&gt;&lt;p&gt;The game features realistic speed limits, with trucks capped at 90 km/h by default. Players can explore an open-world environment, engaging in economic management aspects while enjoying a relaxing and immersive driving experience. &lt;i&gt;Euro Truck Simulator 2&lt;/i&gt; offers Steam Achievements, a level editor, and modding support, enhancing its replay value.&lt;/p&gt;&lt;p&gt;Reception for the game has been positive, praised for its attention to detail, realistic gameplay, and expansive map. Its relaxing gameplay loop and in-depth simulation elements have garnered a dedicated fan base. The game's cultural impact is evident in the modding community, where players create custom content, expanding the game's longevity and player engagement.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>&lt;ol class='ps-4'&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.metacritic.com/game/pc/euro-truck-simulator-2' target='_blank' style='color: #9370DB;'&gt;Metacritic. Euro Truck Simulator 2.&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.pcgamer.com/euro-truck-simulator-2-review/' target='_blank' style='color: #9370DB;'&gt;PC Gamer. Euro Truck Simulator 2 Review.&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.rockpapershotgun.com/euro-truck-simulator-2-review' target='_blank' style='color: #9370DB;'&gt;Rock Paper Shotgun. Euro Truck Simulator 2 Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.12
+Average Playtime: 12 hours
+ESRB Rating: Everyone
+Reviews Count: 892
+Platforms: Linux, macOS, PC</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/1f5/1f5ddf7199f2778ff83663b93b5cb330.jpg</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>79</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>16343</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>A Story About My Uncle</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2014-05-27</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>638</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;A Story About My Uncle&lt;/i&gt; is a unique first-person adventure game developed by Gone North, known for their work on Goat Simulator. Released on May 27, 2014, and published by Coffee Stain Studios, the game diverges from traditional gameplay by emphasizing movement mechanics centered around a grappling hook and a non-violent approach. Players navigate the game's landscapes using the protagonist's energetic costume, allowing for high jumps and the use of the grappling hook, with upgrades like jetpack boots enhancing traversal.&lt;/p&gt;&lt;p&gt;The narrative follows a boy in search of his missing uncle, Freud, who discovers a super costume that transports him to another dimension. Along the journey, players encounter non-hostile NPCs and environmental challenges, including a one-eyed worm that poses a minor threat. The game's focus on exploration, platforming, and puzzle-solving offers a refreshing gameplay experience devoid of combat.&lt;/p&gt;&lt;p&gt;Despite its niche appeal, &lt;i&gt;A Story About My Uncle&lt;/i&gt; received mixed reviews with a rating of 3.15. Critics praised its atmospheric world, engaging soundtrack, and unique gameplay mechanics, while some noted its short length and difficulty level. The game's family-friendly themes, sci-fi elements, and fantasy setting contributed to its charm, appealing to players seeking a more contemplative gaming experience.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://store.steampowered.com/app/278360/A_Story_About_My_Uncle/" target="_blank" style="color: #9370DB;"&gt;Steam Store&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/a-story-about-my-uncle" target="_blank" style="color: #9370DB;"&gt;Metacritic&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.pcgamer.com/a-story-about-my-uncle-review/" target="_blank" style="color: #9370DB;"&gt;PC Gamer Review&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.15
+Average Playtime: 3 hours
+ESRB Rating: Everyone 10+
+Reviews Count: 638
+Platforms: PC, macOS, Linux</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/37a/37a9536e92cf8fe3b60045aa75dbd41f.jpg</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>73</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>13194</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>To the Moon</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Kan Gao, Laura Shigihara, Gabriela Aprile, Alisa Tana, Cecilie Posthumus, Lannie Neely III</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2011-01-10</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1118</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;To the Moon&lt;/i&gt; is a poignant indie adventure RPG developed by Kan Gao and published by Freebird Games in 2011. The game follows the story of Eva Rosalyn and Neil Watts, who use a machine to alter memories, granting individuals the chance to fulfill their unrealized dreams as they approach death. Players delve into the memories of a dying man named Johnny, exploring his past to understand his desire to visit the Moon. Through small locations, puzzles, and rich dialogues, the emotionally charged narrative unfolds, immersing players in a tale of love, loss, and the complexities of human relationships.&lt;/p&gt;&lt;p&gt;The gameplay of &lt;i&gt;To the Moon&lt;/i&gt; revolves around exploration, puzzle-solving, and narrative-driven interactions. With a mix of 2D pixel graphics and a captivating soundtrack, players navigate through Johnny's memories to uncover the reasons behind his final wish. The game's linear and story-rich approach, coupled with its emotional depth, has resonated with players and critics alike, offering a unique gaming experience focused on storytelling and character development.&lt;/p&gt;&lt;p&gt;Receiving widespread acclaim for its narrative depth and emotional impact, &lt;i&gt;To the Moon&lt;/i&gt; has garnered praise for its unique storytelling and memorable characters. The game's evocative themes of love, regret, and the passage of time have left a lasting impression on players, establishing it as a standout title in the indie gaming scene. Its success has led to the release of additional content and adaptations for various platforms, further solidifying its place in gaming history.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://store.steampowered.com/app/206440/To_the_Moon/" target="_blank" style="color: #9370DB;"&gt;Steam Store&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/to-the-moon" target="_blank" style="color: #9370DB;"&gt;Metacritic&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.ign.com/articles/2011/11/07/to-the-moon-review" target="_blank" style="color: #9370DB;"&gt;IGN Review&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.29
+Average Playtime: 4 hours
+ESRB Rating: Everyone
+Reviews Count: 1118
+Platforms: PC, Nintendo Switch, Android, Linux, iOS, macOS</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/fae/faebf3c8cbf30db3f46bfbecf6ada3d6.jpg</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>81</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>22121</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Celeste</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Matt Thorson, Lena Raine, Pedro Medeiros, Amora Bettany, Noel Berry, Gabby DaRienzo</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2018-01-25</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1648</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Celeste is a critically acclaimed indie platformer developed by Matt Thorson, Lena Raine, Pedro Medeiros, Amora Bettany, Noel Berry, and Gabby DaRienzo, released on January 25, 2018. Known for its challenging gameplay and emotional narrative, Celeste follows the journey of Madeline as she climbs a mystical mountain, navigating over 500 levels spread across 8 distinct areas. Players must master precise controls, including Madeline's air-dash and climbing abilities, to progress through the game's punishing yet rewarding levels.&lt;/p&gt;&lt;p&gt;The game's story delves into themes of self-discovery and overcoming personal struggles, set against the backdrop of the Pacific Northwest. As players ascend the mountain, they encounter quirky characters and unravel the mystery of the mountain's power, all while confronting reflections of their inner selves.&lt;/p&gt;&lt;p&gt;Celeste received widespread praise for its tight gameplay, stunning pixel art visuals, and evocative soundtrack composed by Lena Raine. It garnered a rating of 4.38 and was lauded for its challenging yet fair difficulty curve, compelling story, and innovative level design. The game's positive reception led to its recognition as a standout indie title and a recipient of multiple awards.&lt;/p&gt;&lt;p&gt;With its emphasis on mental health themes, accessibility options, and inclusive storytelling, Celeste has had a significant cultural impact within the gaming community, sparking discussions about representation and the power of video games to address personal struggles. The game's success has solidified its status as a modern indie classic, resonating with players worldwide.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>&lt;ol class='ps-4'&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.metacritic.com/game/switch/celeste' target='_blank' style='color: #9370DB;'&gt;Metacritic. (2018). Celeste Reviews.&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.polygon.com/reviews/2018/1/25/16929838/celeste-review-nintendo-switch-pc-ps4-xbox-one' target='_blank' style='color: #9370DB;'&gt;Polygon. (2018). Celeste Review: A Story About Climb, Fall, and Recovery.&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.gamespot.com/reviews/celeste-review/1900-6416849/' target='_blank' style='color: #9370DB;'&gt;GameSpot. (2018). Celeste Review - Mountain Climber.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.38
+Average Playtime: 6 hours
+ESRB Rating: Everyone 10+
+Reviews Count: 1648
+Platforms: Xbox One, PC, macOS, Nintendo Switch, PlayStation 4, Linux</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/594/59487800889ebac294c7c2c070d02356.jpg</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>91</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9671</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2018-02-09</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>850</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;Rust&lt;/i&gt; is a multiplayer online survival game developed and published by Facepunch Studios. Launched on February 9, 2018, the game thrusts players into a harsh, open-world environment where survival is paramount. In a post-apocalyptic setting, players must scavenge for resources, craft tools and weapons, build shelters, and fend off threats ranging from wildlife to rival players.&lt;/p&gt;&lt;p&gt;The gameplay of &lt;i&gt;Rust&lt;/i&gt; revolves around player interaction, combat, and base-building. Players can form alliances, engage in PvP battles, or cooperate to withstand the challenges of the environment. The game offers a mix of action, shooter mechanics, RPG elements, and a massive multiplayer experience, all set in a sandbox world.&lt;/p&gt;&lt;p&gt;Reception for &lt;i&gt;Rust&lt;/i&gt; has been generally positive, with praise for its intense gameplay, player-driven narratives, and the thrill of its unpredictable online interactions. The game's ongoing development, regular updates, and active community have contributed to its sustained popularity.&lt;/p&gt;&lt;p&gt;&lt;i&gt;Rust&lt;/i&gt; has made a significant cultural impact within the gaming community, influencing the survival genre and serving as a template for emergent gameplay experiences. Its blend of survival mechanics, open-world exploration, and player-driven narratives has solidified its status as a key player in the multiplayer survival genre.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>&lt;ol class='ps-4'&gt;&lt;li class='mb-2'&gt;&lt;a href='https://rust.facepunch.com/' target='_blank' style='color: #9370DB;'&gt;Official Rust Website&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.metacritic.com/game/pc/rust' target='_blank' style='color: #9370DB;'&gt;Metacritic - Rust Reviews&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.pcgamer.com/rust-review/' target='_blank' style='color: #9370DB;'&gt;PC Gamer - Rust Review&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.37
+Average Playtime: 15 hours
+ESRB Rating: Mature
+Reviews Count: 850
+Platforms: PlayStation 4, Xbox One, PC, macOS, Linux</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/447/4470c1e76f01acfaf5af9c207d1c1c92.jpg</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>66</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2115</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Overcooked</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2016-08-01</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1337</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;Overcooked&lt;/i&gt; is a chaotic and delightful simulation arcade game developed by Ghost Town Games and published by Team17 Digital. Released on August 1, 2016, the game puts players in the hectic shoes of two chefs working in various kitchens to prepare meals under intense time constraints. Players must follow recipes, manage ingredients, and navigate dynamic kitchen environments that can change and present unique challenges.&lt;/p&gt;&lt;p&gt;The game features a whimsical story mode set in the Onion Kingdom, where players must hone their culinary skills to defeat an insatiable spaghetti monster. With a focus on cooperative gameplay, &lt;i&gt;Overcooked&lt;/i&gt; allows players to control two chefs simultaneously, promoting teamwork and communication as they strive to keep up with orders and avoid kitchen disasters.&lt;/p&gt;&lt;p&gt;Reception for &lt;i&gt;Overcooked&lt;/i&gt; has been overwhelmingly positive, praised for its engaging gameplay, charming visuals, and multiplayer dynamics. The game's local co-op and competitive modes have made it a hit at social gatherings, fostering friendly rivalries and collaborative cooking experiences among players.&lt;/p&gt;&lt;p&gt;With its blend of humor, challenging gameplay, and vibrant aesthetics, &lt;i&gt;Overcooked&lt;/i&gt; has made a significant cultural impact in the gaming community, becoming a beloved title known for its ability to bring people together through the shared chaos of virtual cooking adventures.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/overcooked" target="_blank" style="color: #9370DB;"&gt;Metacritic. (2016). Overcooked Reviews.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.polygon.com/2016/8/2/12353784/overcooked-review-xbox-one-playstation-4-pc" target="_blank" style="color: #9370DB;"&gt;Polygon. (2016). Overcooked Review: A Culinary Collaboration Like No Other.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.gamespot.com/reviews/overcooked-review/1900-6416493/" target="_blank" style="color: #9370DB;"&gt;GameSpot. (2016). Overcooked Review: A Chaotic Blast.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.07
+Average Playtime: 4 hours
+ESRB Rating: Everyone
+Reviews Count: 1337
+Platforms: PlayStation 4, Nintendo Switch, Xbox One, PC</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/270/270b412b66688081497b3d70c100b208.jpg</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>81</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>13247</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Human: Fall Flat</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2016-07-22</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Human: Fall Flat is a unique low-poly adventure game developed by No Brakes Games. Released on July 22, 2016, the game offers players a whimsical experience as they control Bob, a customizable character navigating through dream worlds filled with physics-based puzzles and platforming challenges.&lt;/p&gt;&lt;p&gt;The gameplay of Human: Fall Flat revolves around solving puzzles in a variety of ways, utilizing physics to interact with the environment. Players can manipulate objects, climb ledges, and employ creative problem-solving techniques to progress through the game's levels, which range from small rooms to expansive open worlds.&lt;/p&gt;&lt;p&gt;Receiving praise for its intuitive puzzles and sandbox-style gameplay, Human: Fall Flat has garnered a dedicated fan base. The game's emphasis on player freedom and emergent gameplay moments has contributed to its appeal among both casual and hardcore gamers.&lt;/p&gt;&lt;p&gt;With versions available on multiple platforms including PC, consoles, and mobile devices, Human: Fall Flat has achieved commercial success and continues to receive updates and new content to expand its replay value and maintain its popularity in the indie gaming scene.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.nobrakesgames.com/human/" target="_blank" style="color: #9370DB;"&gt;No Brakes Games. (n.d.). Human: Fall Flat Official Website.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/human-fall-flat" target="_blank" style="color: #9370DB;"&gt;Metacritic. (n.d.). Human: Fall Flat PC Reviews.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://store.steampowered.com/app/477160/Human_Fall_Flat/" target="_blank" style="color: #9370DB;"&gt;Steam. (n.d.). Human: Fall Flat on Steam.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.82
+Average Playtime: 5 hours
+ESRB Rating: Everyone
+Reviews Count: 1011
+Platforms: Android, Linux, macOS, PC, iOS, PlayStation 4, Xbox One, Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/74d/74dafeb9a442b87b9dd4a1d4a2faa37b.jpg</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>70</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11312</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>The Long Dark</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Cris Velasco, Sascha Dikiciyan, Marianne Krawczyk, Alan Lawrance, Raphael van Lierop</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2014-09-22</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>853</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The Long Dark is an action-adventure simulation indie game developed by a team including Cris Velasco, Sascha Dikiciyan, Marianne Krawczyk, Alan Lawrance, and led by Raphael van Lierop. Released on September 22, 2014, by Hinterland Studio, the game plunges players into the harsh conditions of the frozen North Canadian taiga. Players must navigate the treacherous Arctic wilderness, facing extreme cold, wildlife threats, and the constant struggle for survival.&lt;/p&gt;&lt;p&gt;In The Long Dark, players must master various survival skills such as crafting, hunting, and shelter-building to endure the brutal environment. The game features two main modes: Wintermute, offering a narrative-driven experience following pilot Will Mackenzie's quest to survive and find his missing ex-wife, and the open-world sandbox mode, allowing for free exploration and discovery.&lt;/p&gt;&lt;p&gt;Reception to The Long Dark has been generally positive, with praise for its immersive atmosphere, challenging gameplay, and unique art style. The game's emphasis on realism and survival mechanics has garnered a dedicated fanbase and critical acclaim for its unforgiving yet rewarding gameplay experience.&lt;/p&gt;&lt;p&gt;The Long Dark has made a notable impact within the gaming community, standing out for its innovative take on the survival genre and its ability to evoke a sense of isolation and vulnerability in players, making it a standout title in the indie gaming landscape.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/the-long-dark" target="_blank" style="color: #9370DB;"&gt;Metacritic. The Long Dark PC Reviews.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.polygon.com/reviews/2017/8/1/16073286/the-long-dark-story-mode-review-pc-ps4-xbox-one" target="_blank" style="color: #9370DB;"&gt;Polygon. The Long Dark Story Mode Review.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.rockpapershotgun.com/the-long-dark-review" target="_blank" style="color: #9370DB;"&gt;Rock Paper Shotgun. The Long Dark Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.91
+Average Playtime: 5 hours
+ESRB Rating: Teen
+Reviews Count: 853
+Platforms: PlayStation 4, Xbox One, Nintendo Switch, PC, macOS, Linux</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/fd2/fd20a68d7ef195855588c937865dd0a7.jpg</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>76</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>16359</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Divinity: Original Sin - Enhanced Edition</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2015-10-27</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;Divinity: Original Sin - Enhanced Edition&lt;/i&gt; is an acclaimed RPG set in a fantasy world embroiled in a conflict between the Order of the Sourcerers and the Order of Source Hunters. Developed by Larian Studios and published by Focus Home Interactive, the game was initially released on October 27, 2015, for various platforms, including PC, Linux, macOS, PlayStation 4, and Xbox One. Players start by creating two customizable characters and exploring an interactive world where nearly all items can be manipulated to create unique combinations, impacting gameplay significantly.&lt;/p&gt;&lt;p&gt;The game's mechanics emphasize interconnectedness, where environmental factors like wetness affect combat strategies, adding depth to tactical decision-making. Player choices have consequences, shaping the narrative and relationships between characters, which can even evolve romantically. The cooperative gameplay allows for engaging interactions between characters, with the game dynamically resolving disagreements during dialogues.&lt;/p&gt;&lt;p&gt;&lt;i&gt;Divinity: Original Sin - Enhanced Edition&lt;/i&gt; received positive reviews for its rich storytelling, immersive world, deep combat system, and character customization options. With a rating of 4.26, the game was praised for its strategic turn-based combat, captivating soundtrack, and cooperative multiplayer experience. Its impact on the RPG genre is notable, inspiring a dedicated fanbase and influencing subsequent games with its emphasis on player choice and environmental interactions.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>&lt;ol class='ps-4'&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.metacritic.com/game/pc/divinity-original-sin---enhanced-edition' target='_blank' style='color: #9370DB;'&gt;Metacritic. Divinity: Original Sin - Enhanced Edition Reviews.&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.ign.com/articles/2015/10/27/divinity-original-sin-enhanced-edition-review' target='_blank' style='color: #9370DB;'&gt;IGN. (2015). Divinity: Original Sin - Enhanced Edition Review.&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.pcgamer.com/divinity-original-sin-enhanced-edition-review/' target='_blank' style='color: #9370DB;'&gt;PC Gamer. Divinity: Original Sin - Enhanced Edition Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.26
+Average Playtime: 8 hours
+ESRB Rating: Mature
+Reviews Count: 1008
+Platforms: PC, Linux, macOS, PlayStation 4, Xbox One</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/33b/33b825c76382931df0fd8ecddf5caebe.jpg</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>94</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9653</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Hacknet</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2015-08-11</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>487</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Hacknet is a unique computer hacking simulator developed by a small team of independent developers. In the game, players assume the role of a hacker known as Bit, tasked with unraveling the mysterious death of their predecessor, also named Bit. Through a combination of graphical interfaces and text-based commands, players engage in simulated hacking activities to uncover the truth behind the enigmatic circumstances. Each mission requires players to infiltrate different computer systems, bypass security measures, and retrieve crucial information before the countdown expires.&lt;/p&gt;&lt;p&gt;Released on August 11, 2015, for PC, macOS, and Linux, Hacknet garnered attention for its innovative gameplay mechanics and immersive narrative. The game received an expansion in the form of the Hacknet Labyrinths DLC, which introduced new story chapters, hacking tools, and a fresh soundtrack. Additionally, Hacknet allows for player modifications, enhancing its replay value and community engagement.&lt;/p&gt;&lt;p&gt;Reception to Hacknet was generally positive, with praise directed towards its atmospheric cyberpunk setting, engaging hacking mechanics, and captivating storyline. Critics and players alike commended the game for its unique approach to hacking simulation and its educational value in showcasing aspects of programming and cybersecurity. The title's distinctive blend of simulation, indie, and cyberpunk genres contributed to its cult following within the gaming community.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>&lt;ol class='ps-4'&gt;&lt;li class='mb-2'&gt;&lt;a href='https://store.steampowered.com/app/365450/Hacknet/' target='_blank' style='color: #9370DB;'&gt;Steam Store - Hacknet&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.metacritic.com/game/pc/hacknet' target='_blank' style='color: #9370DB;'&gt;Metacritic - Hacknet Reviews&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.pcgamer.com/hacknet-review/' target='_blank' style='color: #9370DB;'&gt;PC Gamer - Hacknet Review&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.18
+Average Playtime: 3 hours
+ESRB Rating: Mature
+Reviews Count: 487
+Platforms: PC, macOS, Linux</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/23b/23b69bfef2a1ce2e3dcdf1aa8ef1150b.jpg</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>82</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>12320</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Prison Architect</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Allister Brimble, Chris Delay, Mark Morris</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2015-10-05</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>579</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Prison Architect is a strategic simulation game developed by Introversion Software, released on October 5, 2015. In this two-dimensional top-down simulator, players are tasked with constructing and managing a prison, including building blocks, cells, facilities, and overseeing staff like wardens and guards. The game features a campaign mode with five parts, each focusing on different aspects of gameplay and storytelling through Polaroid photos. Additionally, players can enjoy Sandbox Mode for open-ended play and Escape Mode where they must orchestrate a prison break.&lt;/p&gt;&lt;p&gt;The gameplay of Prison Architect offers a blend of construction, management, and strategy elements, challenging players to balance the needs of prisoners, staff, and the prison budget. With no strict win conditions in Sandbox Mode but various failure scenarios, and the intense pressure of Escape Mode, the game provides a diverse range of experiences for players.&lt;/p&gt;&lt;p&gt;Reception for Prison Architect has been generally positive, praised for its engaging gameplay, dark humor, and intricate simulation mechanics. The game's blend of strategy and creativity has garnered a dedicated fan base and critical acclaim, leading to its availability on multiple platforms including PC, Xbox One, PlayStation 4, Nintendo Switch, macOS, and Linux.&lt;/p&gt;&lt;p&gt;Prison Architect has made a notable cultural impact in the simulation and strategy gaming community, influencing game design and player expectations within the genre. Its emphasis on player choice, complex systems, and storytelling through gameplay has solidified its status as a standout title in the indie gaming scene.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.metacritic.com/game/pc/prison-architect" target="_blank" style="color: #9370DB;"&gt;Metacritic. (n.d.). Prison Architect reviews.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://store.steampowered.com/app/233450/Prison_Architect/" target="_blank" style="color: #9370DB;"&gt;Steam. (n.d.). Prison Architect on Steam.&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.pcgamer.com/prison-architect-review/" target="_blank" style="color: #9370DB;"&gt;PC Gamer. (Year). Prison Architect review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.72
+Average Playtime: 5 hours
+ESRB Rating: Mature
+Reviews Count: 579
+Platforms: Xbox One, PC, macOS, Linux, Nintendo Switch, PlayStation 4</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/6bc/6bc79f5bc023b1e6938f6eaf9926f073.jpg</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>83</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10090</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Beholder</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2016-11-08</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>705</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Error generating wiki entry. Please try again later.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>No references available due to error.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.81
+Average Playtime: 4 hours
+ESRB Rating: Teen
+Reviews Count: 705
+Platforms: Nintendo Switch, iOS, Xbox One, PC, macOS, Linux, PlayStation 4, Android</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/40a/40ab95c1639aa1d7ec04d4cd523af6b1.jpg</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>75</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>15274</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Jotun: Valhalla Edition</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2015-09-29</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>507</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;Jotun: Valhalla Edition&lt;/i&gt; is an action-adventure indie game that immerses players in the rich world of Norse mythology through its captivating hand-drawn art style and atmospheric soundtrack. Developed and published by Thunder Lotus Games, the game was initially released on September 29, 2015, for various platforms including PlayStation 4, Nintendo Switch, PC, and Xbox One. The game's simple yet addictive graphics, reminiscent of world animation classics, coupled with voices in ancient Scandinavian languages, create an immersive experience that transports players to the realm of Nordic folklore and adventure.&lt;/p&gt;&lt;p&gt;The gameplay of &lt;i&gt;Jotun: Valhalla Edition&lt;/i&gt; revolves around exploration, rune collection to progress through levels, avoiding obstacles, and engaging in epic boss battles. While the action may not be continuous, the game's sporadic but grand battles align perfectly with the epic nature of Nordic tales, allowing players to delve into the world of Norse myths and legends.&lt;/p&gt;&lt;p&gt;Reception towards &lt;i&gt;Jotun: Valhalla Edition&lt;/i&gt; has been positive, with praise for its artistic design, sound quality, and challenging gameplay. The game's unique blend of exploration, mythology, and boss battles has garnered a dedicated fan base and solidified its position in the indie gaming scene.&lt;/p&gt;&lt;p&gt;With its emphasis on Norse mythology, striking visuals, and engaging gameplay mechanics, &lt;i&gt;Jotun: Valhalla Edition&lt;/i&gt; has made a notable cultural impact within the gaming community, contributing to the appreciation of lesser-known mythologies and showcasing the potential for indie games to deliver immersive and memorable experiences.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>&lt;ol style="margin-bottom: 0.5rem;"&gt;&lt;li&gt;&lt;a href="https://store.steampowered.com/app/323580/Jotun_Valhalla_Edition/" target="_blank" style="color: #9370DB;"&gt;Steam Store - Jotun: Valhalla Edition&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.metacritic.com/game/pc/jotun" target="_blank" style="color: #9370DB;"&gt;Metacritic - Jotun: Valhalla Edition&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.ign.com/articles/2015/09/29/jotun-review" target="_blank" style="color: #9370DB;"&gt;IGN - Jotun Review&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Average Rating: 3.06
+Average Playtime: 3 hours
+ESRB Rating: Teen
+Reviews Count: 507
+Platforms: PlayStation 4, Nintendo Switch, PC, Xbox One, Linux, macOS</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/032/0329db96e252aa41e672da2ba16f914c.jpg</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>79</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>452638</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Stray</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Swann Martin-Raget</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1147</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;i&gt;Stray&lt;/i&gt; is a captivating third-person cat adventure game developed by BlueTwelve Studio and published by Annapurna Interactive. Set in a decaying cybercity, players take on the role of a stray cat navigating neon-lit alleys and shadowy underworlds to unravel an ancient mystery and find a way back home. The game offers a unique perspective, allowing players to see the world through the eyes of a cat, interact with the environment playfully, and befriend a flying drone named B-12.&lt;/p&gt;&lt;p&gt;With a blend of action, adventure, puzzle-solving, and platforming elements, &lt;i&gt;Stray&lt;/i&gt; challenges players to be stealthy, nimble, and at times, mischievous. The game's atmospheric open world is inhabited by intriguing droids and menacing creatures, creating a dynamic and immersive gameplay experience. The collaboration between the cat and B-12 adds depth to the narrative as they work together to overcome obstacles and uncover the secrets of the city.&lt;/p&gt;&lt;p&gt;Upon its release on multiple platforms including PlayStation, Xbox, PC, and Nintendo Switch, &lt;i&gt;Stray&lt;/i&gt; received positive reviews for its unique concept, engaging gameplay, and charming visuals. The game's distinct setting, cyberpunk aesthetics, and emphasis on exploration, stealth, and mystery have resonated with players and critics alike, earning it a rating of 4.16.&lt;/p&gt;&lt;p&gt;With its intriguing premise, innovative gameplay mechanics, and strong reception, &lt;i&gt;Stray&lt;/i&gt; has made a notable impact in the indie gaming scene, attracting a diverse audience of players who appreciate its creativity, storytelling, and feline-centric perspective.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>&lt;ol class="ps-4"&gt;&lt;li class="mb-2"&gt;&lt;a href="https://www.stray.game/" target="_blank" style="color: #9370DB;"&gt;Official Website&lt;/a&gt;&lt;/li&gt;&lt;li class="mb-2"&gt;&lt;a href="https://store.steampowered.com/app/1118800/Stray/" target="_blank" style="color: #9370DB;"&gt;Steam Store&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Average Rating: 4.16
+Average Playtime: 5 hours
+ESRB Rating: Everyone 10+
+Reviews Count: 1147
+Platforms: macOS, Xbox One, Nintendo Switch, PC, Xbox Series S/X, PlayStation 5, PlayStation 4</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/cd3/cd3c9c7d3e95cb1608fd6250f1b90b7a.jpg</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>82</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3912</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sanctum 2</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2013-05-15</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>399</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Sanctum 2 is a first-person shooter and tower defense game developed by Coffee Stain Studios, serving as the sequel to the original Sanctum. Released on May 15, 2013, the game is set on planet Loek-III, a human-colonized world where players assume the role of Core Guardians tasked with protecting the Cores, energy sources vital for human survival, from waves of attacking enemies. With four unique characters, each offering distinct abilities and unlockable weapons, players engage in a blend of FPS action and strategic tower defense gameplay.&lt;/p&gt;&lt;p&gt;The gameplay of Sanctum 2 revolves around defending the Core during waves of enemy assaults. Players alternate between building defensive structures during the building phase and actively fighting enemies during the defending phase. This mix of strategic planning and intense combat challenges players to adapt their tactics to counter different enemy types and behaviors.&lt;/p&gt;&lt;p&gt;Reception for Sanctum 2 was generally positive, with praise for its engaging gameplay mechanics that successfully merged first-person shooting with tower defense elements. Critics lauded the variety offered by the diverse character abilities and weapons, as well as the cooperative multiplayer mode that allowed players to strategize and defend the Cores together. The game's sci-fi setting, futuristic environments, and challenging gameplay contributed to its appeal among fans of both genres.&lt;/p&gt;&lt;p&gt;Sanctum 2's impact on the gaming community was notable for expanding the hybrid genre of FPS tower defense games, inspiring similar titles to explore the combination of strategic defense planning and direct combat. Its emphasis on teamwork and coordination in multiplayer modes also influenced cooperative gameplay trends in subsequent releases.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>&lt;ol class='ps-4'&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.metacritic.com/game/pc/sanctum-2' target='_blank' style='color: #9370DB;'&gt;Metacritic. (2013). Sanctum 2 - PC.&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://store.steampowered.com/app/210770/Sanctum_2/' target='_blank' style='color: #9370DB;'&gt;Steam Store. (n.d.). Sanctum 2.&lt;/a&gt;&lt;/li&gt;&lt;li class='mb-2'&gt;&lt;a href='https://www.gamespot.com/reviews/sanctum-2-review/1900-6409260/' target='_blank' style='color: #9370DB;'&gt;Gamespot. (2013). Sanctum 2 Review.&lt;/a&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Average Rating: 2.97
+Average Playtime: 3 hours
+ESRB Rating: Teen
+Reviews Count: 399
+Platforms: macOS, Linux, PlayStation 3, Xbox 360, PC</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>April 29th, 2025</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>https://media.rawg.io/media/games/963/963815b2a1a88475a31f311b591e70fb.jpg</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>77</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
